--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B5B473-ACCE-43EF-8BF3-ED540E13E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC7BC0-BEA2-49F2-A81B-1784E56053E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -973,36 +973,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1302,9 +1285,9 @@
     <col min="4" max="4" width="4.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="5.125" style="3" customWidth="1"/>
-    <col min="10" max="17" width="5.625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="5.625" style="3" customWidth="1"/>
+    <col min="10" max="17" width="6.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
     <col min="19" max="21" width="2.625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
@@ -1440,7 +1423,6 @@
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="66"/>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1444,7 @@
     </row>
     <row r="7" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="50"/>
       <c r="F7" s="42"/>
@@ -1480,7 +1462,7 @@
     </row>
     <row r="8" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="67"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="60"/>
       <c r="E8" s="51"/>
       <c r="F8" s="42"/>
@@ -1498,15 +1480,14 @@
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="13"/>
-      <c r="C9" s="66"/>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="71"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="31"/>
       <c r="L9" s="35"/>
       <c r="M9" s="31"/>
@@ -1555,12 +1536,12 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="2:22" ht="8.1" customHeight="1">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="42"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -1575,10 +1556,10 @@
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="46"/>
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
@@ -1594,11 +1575,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:22" s="73" customFormat="1" ht="8.1" customHeight="1">
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
+    <row r="14" spans="2:22" ht="8.1" customHeight="1">
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="42"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -1609,9 +1590,8 @@
       <c r="M14" s="31"/>
       <c r="N14" s="37"/>
       <c r="O14" s="35"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="33"/>
     </row>
     <row r="15" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B15" s="23"/>
@@ -1653,7 +1633,6 @@
       <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="66"/>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1657,7 @@
     </row>
     <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B18" s="14"/>
-      <c r="C18" s="67"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="60"/>
       <c r="E18" s="50"/>
       <c r="F18" s="42"/>
@@ -1696,7 +1675,7 @@
     </row>
     <row r="19" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="67"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="60"/>
       <c r="E19" s="51"/>
       <c r="F19" s="42"/>
@@ -1714,7 +1693,6 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="13"/>
-      <c r="C20" s="66"/>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1739,7 +1717,7 @@
     </row>
     <row r="21" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B21" s="14"/>
-      <c r="C21" s="67"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="60"/>
       <c r="E21" s="50"/>
       <c r="F21" s="42"/>
@@ -1757,7 +1735,7 @@
     </row>
     <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="14"/>
-      <c r="C22" s="67"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="60"/>
       <c r="E22" s="51"/>
       <c r="F22" s="42"/>
@@ -1775,7 +1753,6 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="13"/>
-      <c r="C23" s="66"/>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1776,7 @@
     </row>
     <row r="24" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="67"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="60"/>
       <c r="E24" s="50"/>
       <c r="F24" s="42"/>
@@ -1817,7 +1794,7 @@
     </row>
     <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="14"/>
-      <c r="C25" s="67"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="60"/>
       <c r="E25" s="51"/>
       <c r="F25" s="42"/>
@@ -1835,7 +1812,6 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="13"/>
-      <c r="C26" s="66"/>
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1836,7 @@
     </row>
     <row r="27" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B27" s="14"/>
-      <c r="C27" s="67"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="60"/>
       <c r="E27" s="50"/>
       <c r="F27" s="42"/>
@@ -1878,7 +1854,7 @@
     </row>
     <row r="28" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="14"/>
-      <c r="C28" s="67"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="60"/>
       <c r="E28" s="51"/>
       <c r="F28" s="42"/>
@@ -1896,7 +1872,6 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="13"/>
-      <c r="C29" s="66"/>
       <c r="E29" s="48" t="s">
         <v>42</v>
       </c>
@@ -1954,7 +1929,7 @@
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="67"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="60"/>
       <c r="E32" s="48"/>
       <c r="F32" s="57"/>
@@ -1992,7 +1967,7 @@
     </row>
     <row r="34" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="14"/>
-      <c r="C34" s="67"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="60"/>
       <c r="E34" s="48"/>
       <c r="F34" s="42"/>
@@ -2010,7 +1985,6 @@
       <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="66"/>
       <c r="E35" s="3"/>
       <c r="F35" s="46"/>
       <c r="G35" s="47"/>
@@ -2059,7 +2033,6 @@
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="66"/>
       <c r="E38" s="3"/>
       <c r="F38" s="45"/>
       <c r="G38" s="47"/>
@@ -2111,7 +2084,6 @@
       <c r="B41" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="66"/>
       <c r="E41" s="3"/>
       <c r="F41" s="45"/>
       <c r="G41" s="2"/>
@@ -2160,7 +2132,6 @@
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="66"/>
       <c r="E44" s="48"/>
       <c r="F44" s="57"/>
       <c r="G44" s="58"/>
@@ -2200,7 +2171,7 @@
     </row>
     <row r="46" spans="2:22" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="14"/>
-      <c r="C46" s="67"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="60"/>
       <c r="E46" s="48"/>
       <c r="F46" s="42"/>
@@ -2215,7 +2186,6 @@
       <c r="B47" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="66"/>
       <c r="E47" s="3"/>
       <c r="F47" s="46"/>
       <c r="G47" s="47"/>
@@ -2254,7 +2224,6 @@
       <c r="B50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="66"/>
       <c r="E50" s="3"/>
       <c r="F50" s="46"/>
       <c r="G50" s="47"/>
@@ -2293,7 +2262,6 @@
       <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="66"/>
       <c r="E53" s="3"/>
       <c r="F53" s="45"/>
       <c r="G53" s="2"/>
@@ -2330,7 +2298,7 @@
       <c r="B56" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="60"/>
       <c r="E56" s="48"/>
       <c r="F56" s="57"/>
@@ -2365,7 +2333,7 @@
       <c r="B59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="68"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="63"/>
       <c r="E59" s="53">
         <v>2208</v>
@@ -2377,7 +2345,7 @@
     </row>
     <row r="60" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B60" s="16"/>
-      <c r="C60" s="68"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="63"/>
       <c r="E60" s="50"/>
       <c r="F60" s="42"/>
@@ -2387,7 +2355,7 @@
     </row>
     <row r="61" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B61" s="16"/>
-      <c r="C61" s="68"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="63"/>
       <c r="E61" s="51"/>
       <c r="F61" s="42"/>
@@ -2397,7 +2365,7 @@
     </row>
     <row r="62" spans="2:18">
       <c r="B62" s="16"/>
-      <c r="C62" s="68"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="63"/>
       <c r="E62" s="53">
         <v>2302</v>
@@ -2409,7 +2377,7 @@
     </row>
     <row r="63" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B63" s="16"/>
-      <c r="C63" s="68"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="63"/>
       <c r="E63" s="50"/>
       <c r="F63" s="44"/>
@@ -2419,7 +2387,7 @@
     </row>
     <row r="64" spans="2:18" ht="5.0999999999999996" customHeight="1">
       <c r="B64" s="16"/>
-      <c r="C64" s="68"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="63"/>
       <c r="E64" s="51"/>
       <c r="F64" s="44"/>
@@ -2429,7 +2397,7 @@
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="14"/>
-      <c r="C65" s="67"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="60"/>
       <c r="E65" s="53">
         <v>2308</v>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EC7BC0-BEA2-49F2-A81B-1784E56053E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C7106-282D-4B08-A485-04F7338D1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>Office 2021</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Office 2024?</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -257,10 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>28H2?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黄：過去の製品のサポート期間やニュース記事から予測 / Yellow: Forecast based on past product life cycle and news</t>
     <rPh sb="12" eb="14">
       <t>キカン</t>
@@ -268,6 +260,28 @@
     <rPh sb="19" eb="21">
       <t>キジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office 2024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R19年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R20年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??H2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -349,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -673,19 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -778,7 +779,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="dashed">
@@ -786,13 +787,194 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -904,9 +1086,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,10 +1104,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,42 +1125,63 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -990,6 +1190,49 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V72"/>
+  <dimension ref="B1:X75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1282,25 +1525,25 @@
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
     <col min="7" max="9" width="5.625" style="3" customWidth="1"/>
-    <col min="10" max="17" width="6.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
-    <col min="19" max="21" width="2.625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="10" max="19" width="6.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="2.625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:22">
+    <row r="1" spans="2:24" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:24">
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1308,57 +1551,65 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="2:22" ht="16.5" thickBot="1">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:24" ht="16.5" thickBot="1">
       <c r="F3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="16.5" thickBot="1">
+      <c r="S3" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="16.5" thickBot="1">
       <c r="B4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="64" t="s">
-        <v>41</v>
+      <c r="E4" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="22">
         <v>2024</v>
@@ -1396,525 +1647,587 @@
       <c r="Q4" s="10">
         <v>2035</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="10">
         <v>2036</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="S4" s="10">
+        <v>2037</v>
+      </c>
+      <c r="T4" s="11">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="41"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="34"/>
       <c r="K5" s="29"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="36"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="34"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-    </row>
-    <row r="6" spans="2:22">
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="31"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="35"/>
       <c r="K6" s="31"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="37"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="35"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
-      <c r="V6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="32"/>
+      <c r="X6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="35"/>
       <c r="K7" s="31"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="37"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="35"/>
       <c r="Q7" s="31"/>
-      <c r="R7" s="33"/>
-    </row>
-    <row r="8" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="35"/>
       <c r="K8" s="31"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="31"/>
       <c r="O8" s="35"/>
       <c r="Q8" s="31"/>
-      <c r="R8" s="33"/>
-    </row>
-    <row r="9" spans="2:22">
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="13"/>
       <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="67"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="64"/>
       <c r="K9" s="31"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="35"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
       <c r="O9" s="35"/>
       <c r="Q9" s="31"/>
-      <c r="R9" s="32"/>
-      <c r="V9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="32"/>
+      <c r="X9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="31"/>
       <c r="J10" s="35"/>
       <c r="K10" s="31"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="35"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
       <c r="O10" s="35"/>
       <c r="Q10" s="31"/>
-      <c r="R10" s="32"/>
-    </row>
-    <row r="11" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="32"/>
+    </row>
+    <row r="11" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="24"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="31"/>
       <c r="J11" s="35"/>
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="35"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
       <c r="O11" s="35"/>
       <c r="Q11" s="31"/>
-      <c r="R11" s="32"/>
-    </row>
-    <row r="12" spans="2:22" ht="8.1" customHeight="1">
-      <c r="B12" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="42"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="32"/>
+    </row>
+    <row r="12" spans="2:24" ht="8.1" customHeight="1">
+      <c r="B12" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="35"/>
       <c r="K12" s="31"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="37"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="35"/>
       <c r="Q12" s="31"/>
-      <c r="R12" s="32"/>
-    </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="32"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
       <c r="Q13" s="31"/>
-      <c r="R13" s="33"/>
-      <c r="V13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="8.1" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="42"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="33"/>
+      <c r="X13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="8.1" customHeight="1">
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
       <c r="K14" s="31"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="37"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="35"/>
       <c r="Q14" s="31"/>
-      <c r="R14" s="33"/>
-    </row>
-    <row r="15" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B15" s="23"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="35"/>
       <c r="K15" s="31"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="37"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="31"/>
       <c r="O15" s="35"/>
       <c r="Q15" s="31"/>
-      <c r="R15" s="33"/>
-    </row>
-    <row r="16" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B16" s="24"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="35"/>
       <c r="K16" s="31"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="37"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="35"/>
       <c r="Q16" s="31"/>
-      <c r="R16" s="33"/>
-    </row>
-    <row r="17" spans="2:22">
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="45"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="44"/>
       <c r="G17" s="31"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
       <c r="K17" s="31"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="37"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="35"/>
       <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="32"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B18" s="14"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="42"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="35"/>
       <c r="K18" s="31"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="37"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="31"/>
       <c r="O18" s="35"/>
       <c r="Q18" s="31"/>
-      <c r="R18" s="33"/>
-    </row>
-    <row r="19" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="42"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="35"/>
       <c r="K19" s="31"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="37"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="35"/>
       <c r="Q19" s="31"/>
-      <c r="R19" s="33"/>
-    </row>
-    <row r="20" spans="2:22">
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="13"/>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="44"/>
       <c r="G20" s="2"/>
       <c r="H20" s="31"/>
       <c r="I20" s="37"/>
       <c r="J20" s="35"/>
       <c r="K20" s="31"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="37"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="35"/>
       <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="32"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B21" s="14"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="42"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="35"/>
       <c r="K21" s="31"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="37"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="35"/>
       <c r="Q21" s="31"/>
-      <c r="R21" s="33"/>
-    </row>
-    <row r="22" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="14"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="35"/>
       <c r="K22" s="31"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="37"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="31"/>
       <c r="O22" s="35"/>
       <c r="Q22" s="31"/>
-      <c r="R22" s="33"/>
-    </row>
-    <row r="23" spans="2:22">
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="33"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="13"/>
       <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="F23" s="44"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="J23" s="35"/>
       <c r="K23" s="31"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="37"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="31"/>
       <c r="O23" s="35"/>
       <c r="Q23" s="31"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="32"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="35"/>
       <c r="K24" s="31"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="37"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="35"/>
       <c r="Q24" s="31"/>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="33"/>
+    </row>
+    <row r="25" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="14"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="35"/>
       <c r="K25" s="31"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="37"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="31"/>
       <c r="O25" s="35"/>
       <c r="Q25" s="31"/>
-      <c r="R25" s="33"/>
-    </row>
-    <row r="26" spans="2:22">
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="33"/>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="13"/>
       <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="79"/>
       <c r="J26" s="35"/>
       <c r="K26" s="31"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="37"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="35"/>
       <c r="Q26" s="31"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="32"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B27" s="14"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="42"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="35"/>
       <c r="K27" s="31"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="37"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="35"/>
       <c r="Q27" s="31"/>
-      <c r="R27" s="33"/>
-    </row>
-    <row r="28" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="33"/>
+    </row>
+    <row r="28" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="14"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="42"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
       <c r="J28" s="35"/>
       <c r="K28" s="31"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="37"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="35"/>
       <c r="Q28" s="31"/>
-      <c r="R28" s="33"/>
-    </row>
-    <row r="29" spans="2:22">
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="33"/>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="13"/>
-      <c r="E29" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="31"/>
+      <c r="E29" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
       <c r="O29" s="35"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="32"/>
       <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B30" s="23"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="42"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="4.5" customHeight="1">
+      <c r="B30" s="14"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37"/>
       <c r="J30" s="35"/>
       <c r="K30" s="31"/>
       <c r="L30" s="35"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="31"/>
       <c r="O30" s="35"/>
       <c r="Q30" s="31"/>
-      <c r="R30" s="33"/>
-    </row>
-    <row r="31" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="33"/>
+    </row>
+    <row r="31" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B31" s="24"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="65"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="35"/>
@@ -1923,39 +2236,43 @@
       <c r="N31" s="31"/>
       <c r="O31" s="35"/>
       <c r="Q31" s="31"/>
-      <c r="R31" s="33"/>
-    </row>
-    <row r="32" spans="2:22">
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="33"/>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="15"/>
-    </row>
-    <row r="33" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B33" s="17"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="40"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="81"/>
       <c r="K33" s="38"/>
       <c r="L33" s="39"/>
       <c r="M33" s="18"/>
@@ -1963,46 +2280,53 @@
       <c r="O33" s="35"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="31"/>
-      <c r="R33" s="32"/>
-    </row>
-    <row r="34" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="32"/>
+    </row>
+    <row r="34" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="14"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="37"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="35"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="80"/>
       <c r="K34" s="31"/>
       <c r="L34" s="35"/>
       <c r="N34" s="25"/>
       <c r="O34" s="34"/>
       <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
-    </row>
-    <row r="35" spans="2:22">
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="84"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
       <c r="K35" s="31"/>
       <c r="L35" s="35"/>
       <c r="N35" s="31"/>
       <c r="O35" s="35"/>
       <c r="Q35" s="31"/>
-      <c r="R35" s="32"/>
-    </row>
-    <row r="36" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="86"/>
+    </row>
+    <row r="36" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B36" s="23"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="35"/>
@@ -2011,14 +2335,16 @@
       <c r="N36" s="31"/>
       <c r="O36" s="35"/>
       <c r="Q36" s="31"/>
-      <c r="R36" s="33"/>
-    </row>
-    <row r="37" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="87"/>
+    </row>
+    <row r="37" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B37" s="24"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
       <c r="I37" s="35"/>
@@ -2027,33 +2353,37 @@
       <c r="N37" s="31"/>
       <c r="O37" s="35"/>
       <c r="Q37" s="31"/>
-      <c r="R37" s="33"/>
-    </row>
-    <row r="38" spans="2:22">
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="87"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
       <c r="N38" s="31"/>
       <c r="O38" s="35"/>
       <c r="Q38" s="31"/>
-      <c r="R38" s="32"/>
-      <c r="V38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="86"/>
+      <c r="X38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B39" s="23"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="42"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
       <c r="I39" s="35"/>
@@ -2062,14 +2392,16 @@
       <c r="N39" s="31"/>
       <c r="O39" s="35"/>
       <c r="Q39" s="31"/>
-      <c r="R39" s="33"/>
-    </row>
-    <row r="40" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="87"/>
+    </row>
+    <row r="40" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B40" s="24"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="42"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="35"/>
@@ -2078,86 +2410,96 @@
       <c r="N40" s="31"/>
       <c r="O40" s="35"/>
       <c r="Q40" s="31"/>
-      <c r="R40" s="33"/>
-    </row>
-    <row r="41" spans="2:22">
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="87"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="45"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
       <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="V41" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="86"/>
+      <c r="X41" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B42" s="23"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="42"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="35"/>
       <c r="K42" s="31"/>
       <c r="L42" s="35"/>
       <c r="Q42" s="31"/>
-      <c r="R42" s="33"/>
-    </row>
-    <row r="43" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="87"/>
+    </row>
+    <row r="43" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="24"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="42"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="35"/>
       <c r="K43" s="31"/>
       <c r="L43" s="35"/>
       <c r="Q43" s="31"/>
-      <c r="R43" s="33"/>
-    </row>
-    <row r="44" spans="2:22">
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="87"/>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="15"/>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+        <v>27</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="87"/>
+      <c r="X44" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B45" s="17"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="70"/>
       <c r="I45" s="39"/>
       <c r="J45" s="18"/>
       <c r="K45" s="38"/>
@@ -2167,301 +2509,350 @@
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
-      <c r="R45" s="19"/>
-    </row>
-    <row r="46" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="19"/>
+    </row>
+    <row r="46" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="14"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="35"/>
       <c r="K46" s="31"/>
       <c r="L46" s="35"/>
-      <c r="R46" s="15"/>
-    </row>
-    <row r="47" spans="2:22">
+      <c r="T46" s="15"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="35"/>
       <c r="K47" s="31"/>
       <c r="L47" s="35"/>
-      <c r="R47" s="15"/>
-    </row>
-    <row r="48" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="T47" s="15"/>
+    </row>
+    <row r="48" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B48" s="23"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="67"/>
       <c r="I48" s="35"/>
       <c r="K48" s="31"/>
       <c r="L48" s="35"/>
-      <c r="R48" s="15"/>
-    </row>
-    <row r="49" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T48" s="15"/>
+    </row>
+    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B49" s="24"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="35"/>
       <c r="K49" s="31"/>
       <c r="L49" s="35"/>
-      <c r="R49" s="15"/>
-    </row>
-    <row r="50" spans="2:18">
+      <c r="T49" s="15"/>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="35"/>
       <c r="K50" s="31"/>
       <c r="L50" s="35"/>
-      <c r="R50" s="15"/>
-    </row>
-    <row r="51" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T50" s="15"/>
+    </row>
+    <row r="51" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B51" s="23"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="67"/>
       <c r="I51" s="35"/>
       <c r="K51" s="31"/>
       <c r="L51" s="35"/>
-      <c r="R51" s="15"/>
-    </row>
-    <row r="52" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T51" s="15"/>
+    </row>
+    <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="24"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="67"/>
       <c r="I52" s="35"/>
       <c r="K52" s="31"/>
       <c r="L52" s="35"/>
-      <c r="R52" s="15"/>
-    </row>
-    <row r="53" spans="2:18" ht="17.25" customHeight="1">
+      <c r="T52" s="15"/>
+    </row>
+    <row r="53" spans="2:20" ht="17.25" customHeight="1">
       <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="45"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="K53" s="31"/>
       <c r="L53" s="35"/>
-      <c r="R53" s="15"/>
-    </row>
-    <row r="54" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T53" s="15"/>
+    </row>
+    <row r="54" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B54" s="23"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="42"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="35"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="35"/>
       <c r="K54" s="31"/>
       <c r="L54" s="35"/>
-      <c r="R54" s="15"/>
-    </row>
-    <row r="55" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T54" s="15"/>
+    </row>
+    <row r="55" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B55" s="24"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="42"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="35"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="35"/>
       <c r="K55" s="31"/>
       <c r="L55" s="35"/>
-      <c r="R55" s="15"/>
-    </row>
-    <row r="56" spans="2:18">
-      <c r="B56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="59"/>
-      <c r="R56" s="15"/>
-    </row>
-    <row r="57" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="T55" s="15"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="T56" s="15"/>
+    </row>
+    <row r="57" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B57" s="23"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="42"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="35"/>
-      <c r="R57" s="15"/>
-    </row>
-    <row r="58" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="H57" s="37"/>
+      <c r="I57" s="35"/>
+      <c r="T57" s="15"/>
+    </row>
+    <row r="58" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B58" s="24"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="42"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="37"/>
-      <c r="H58" s="35"/>
-      <c r="R58" s="15"/>
-    </row>
-    <row r="59" spans="2:18">
+      <c r="H58" s="37"/>
+      <c r="I58" s="35"/>
+      <c r="T58" s="15"/>
+    </row>
+    <row r="59" spans="2:20">
       <c r="B59" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="53">
+        <v>11</v>
+      </c>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="52">
         <v>2208</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="31"/>
-      <c r="H59" s="35"/>
-      <c r="R59" s="15"/>
-    </row>
-    <row r="60" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="H59" s="37"/>
+      <c r="I59" s="35"/>
+      <c r="T59" s="15"/>
+    </row>
+    <row r="60" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B60" s="16"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="42"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="37"/>
-      <c r="H60" s="35"/>
-      <c r="R60" s="15"/>
-    </row>
-    <row r="61" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="H60" s="37"/>
+      <c r="I60" s="35"/>
+      <c r="T60" s="15"/>
+    </row>
+    <row r="61" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B61" s="16"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="42"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="37"/>
-      <c r="H61" s="35"/>
-      <c r="R61" s="15"/>
-    </row>
-    <row r="62" spans="2:18">
+      <c r="H61" s="37"/>
+      <c r="I61" s="35"/>
+      <c r="T61" s="15"/>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62" s="16"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="53">
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="52">
         <v>2302</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="44"/>
       <c r="G62" s="31"/>
-      <c r="H62" s="35"/>
-      <c r="R62" s="15"/>
-    </row>
-    <row r="63" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="H62" s="37"/>
+      <c r="I62" s="35"/>
+      <c r="T62" s="15"/>
+    </row>
+    <row r="63" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B63" s="16"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="44"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="31"/>
-      <c r="H63" s="35"/>
-      <c r="R63" s="15"/>
-    </row>
-    <row r="64" spans="2:18" ht="5.0999999999999996" customHeight="1">
+      <c r="H63" s="37"/>
+      <c r="I63" s="35"/>
+      <c r="T63" s="15"/>
+    </row>
+    <row r="64" spans="2:20" ht="5.0999999999999996" customHeight="1">
       <c r="B64" s="16"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="35"/>
-      <c r="R64" s="15"/>
-    </row>
-    <row r="65" spans="2:18">
-      <c r="B65" s="14"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="53">
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="35"/>
+      <c r="T64" s="15"/>
+    </row>
+    <row r="65" spans="2:20">
+      <c r="B65" s="16"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="52">
         <v>2308</v>
       </c>
-      <c r="F65" s="45"/>
-      <c r="G65" s="2"/>
-      <c r="R65" s="15"/>
-    </row>
-    <row r="66" spans="2:18" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B66" s="17"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="19"/>
-    </row>
-    <row r="67" spans="2:18" ht="5.0999999999999996" customHeight="1"/>
-    <row r="68" spans="2:18">
-      <c r="B68" s="2"/>
-      <c r="C68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="2:18">
-      <c r="B69" s="5"/>
-      <c r="C69" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="2:18">
-      <c r="B70" s="56"/>
-      <c r="C70" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="2:18">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="31"/>
+      <c r="T65" s="15"/>
+    </row>
+    <row r="66" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B66" s="16"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="31"/>
+      <c r="T66" s="15"/>
+    </row>
+    <row r="67" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="B67" s="16"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="92"/>
+      <c r="T67" s="15"/>
+    </row>
+    <row r="68" spans="2:20">
+      <c r="B68" s="14"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="52">
+        <v>2402</v>
+      </c>
+      <c r="F68" s="88"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="90"/>
+      <c r="T68" s="15"/>
+    </row>
+    <row r="69" spans="2:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B69" s="17"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="19"/>
+    </row>
+    <row r="70" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
+    <row r="71" spans="2:20">
+      <c r="B71" s="2"/>
+      <c r="C71" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="2:18">
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="2:20">
+      <c r="B72" s="5"/>
+      <c r="C72" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="2:20">
+      <c r="B73" s="55"/>
+      <c r="C73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="2:20">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:20">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C7106-282D-4B08-A485-04F7338D1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F4CDB-AB8B-4B82-9DE1-E78A67143D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -207,7 +207,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緑：メインストリームサポート期間 / Green: Mainstream support</t>
+    <t xml:space="preserve">	Germanium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Iron</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Redstone 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Nickel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cobalt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vibranium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Office 2024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R19年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R20年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑：メインストリームサポート期間 / Green: Mainstream support period</t>
     <rPh sb="0" eb="1">
       <t>ミドリ</t>
     </rPh>
@@ -217,43 +267,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄緑：延長サポート期間 / Light green: Extended support</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Germanium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Iron</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Redstone 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Nickel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	Cobalt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gallium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vibranium</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄：過去の製品のサポート期間やニュース記事から予測 / Yellow: Forecast based on past product life cycle and news</t>
+    <t>黄緑：延長サポート期間 / Light green: Extended support period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄：過去の製品のサポート期間やニュース記事から予測 / Yellow: Forecast based on old product life cycle and news</t>
     <rPh sb="12" eb="14">
       <t>キカン</t>
     </rPh>
@@ -263,25 +281,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Office 2024</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R19年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R20年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>??H2</t>
+    <t>Hudson Valley</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sun Valley</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Germanium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build 26xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build 27xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dilithium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sun Valley 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Build 22xxx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -363,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -968,6 +996,28 @@
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1182,6 +1232,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,49 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,13 +1566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:X75"/>
+  <dimension ref="B1:AB75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
@@ -1532,7 +1584,11 @@
     <col min="10" max="19" width="6.125" style="3" customWidth="1"/>
     <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
     <col min="21" max="23" width="2.625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="2.625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" thickBot="1"/>
@@ -1596,10 +1652,10 @@
         <v>25</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:24" ht="16.5" thickBot="1">
@@ -1609,7 +1665,7 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" s="22">
         <v>2024</v>
@@ -1692,15 +1748,12 @@
       <c r="J6" s="35"/>
       <c r="K6" s="31"/>
       <c r="L6" s="35"/>
-      <c r="M6" s="78"/>
       <c r="N6" s="31"/>
       <c r="O6" s="35"/>
       <c r="Q6" s="31"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
       <c r="T6" s="32"/>
       <c r="X6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1715,12 +1768,9 @@
       <c r="J7" s="35"/>
       <c r="K7" s="31"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="78"/>
       <c r="N7" s="31"/>
       <c r="O7" s="35"/>
       <c r="Q7" s="31"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1735,12 +1785,9 @@
       <c r="J8" s="35"/>
       <c r="K8" s="31"/>
       <c r="L8" s="35"/>
-      <c r="M8" s="78"/>
       <c r="N8" s="31"/>
       <c r="O8" s="35"/>
       <c r="Q8" s="31"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
       <c r="T8" s="33"/>
     </row>
     <row r="9" spans="2:24">
@@ -1755,15 +1802,11 @@
       <c r="J9" s="64"/>
       <c r="K9" s="31"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
       <c r="O9" s="35"/>
       <c r="Q9" s="31"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
       <c r="T9" s="32"/>
       <c r="X9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1778,12 +1821,8 @@
       <c r="J10" s="35"/>
       <c r="K10" s="31"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
       <c r="O10" s="35"/>
       <c r="Q10" s="31"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
       <c r="T10" s="32"/>
     </row>
     <row r="11" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1798,21 +1837,17 @@
       <c r="J11" s="35"/>
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
       <c r="O11" s="35"/>
       <c r="Q11" s="31"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
       <c r="T11" s="32"/>
     </row>
     <row r="12" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="41"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -1820,41 +1855,36 @@
       <c r="J12" s="35"/>
       <c r="K12" s="31"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="78"/>
       <c r="N12" s="31"/>
       <c r="O12" s="35"/>
       <c r="Q12" s="31"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
       <c r="T12" s="32"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
       <c r="Q13" s="31"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
       <c r="T13" s="33"/>
       <c r="X13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="41"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -1862,12 +1892,9 @@
       <c r="J14" s="35"/>
       <c r="K14" s="31"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="78"/>
       <c r="N14" s="31"/>
       <c r="O14" s="35"/>
       <c r="Q14" s="31"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
       <c r="T14" s="33"/>
     </row>
     <row r="15" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1882,12 +1909,9 @@
       <c r="J15" s="35"/>
       <c r="K15" s="31"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="78"/>
       <c r="N15" s="31"/>
       <c r="O15" s="35"/>
       <c r="Q15" s="31"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
       <c r="T15" s="33"/>
     </row>
     <row r="16" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -1902,15 +1926,12 @@
       <c r="J16" s="35"/>
       <c r="K16" s="31"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="78"/>
       <c r="N16" s="31"/>
       <c r="O16" s="35"/>
       <c r="Q16" s="31"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
       <c r="T16" s="33"/>
     </row>
-    <row r="17" spans="2:24">
+    <row r="17" spans="2:28">
       <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
@@ -1924,21 +1945,24 @@
       <c r="J17" s="35"/>
       <c r="K17" s="31"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="78"/>
       <c r="N17" s="31"/>
       <c r="O17" s="35"/>
       <c r="Q17" s="31"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
       <c r="T17" s="32"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" ht="5.0999999999999996" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B18" s="14"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -1950,15 +1974,12 @@
       <c r="J18" s="35"/>
       <c r="K18" s="31"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="78"/>
       <c r="N18" s="31"/>
       <c r="O18" s="35"/>
       <c r="Q18" s="31"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
       <c r="T18" s="33"/>
     </row>
-    <row r="19" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="19" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B19" s="14"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -1970,15 +1991,12 @@
       <c r="J19" s="35"/>
       <c r="K19" s="31"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="78"/>
       <c r="N19" s="31"/>
       <c r="O19" s="35"/>
       <c r="Q19" s="31"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
       <c r="T19" s="33"/>
     </row>
-    <row r="20" spans="2:24">
+    <row r="20" spans="2:28">
       <c r="B20" s="13"/>
       <c r="E20" s="3" t="s">
         <v>9</v>
@@ -1990,21 +2008,24 @@
       <c r="J20" s="35"/>
       <c r="K20" s="31"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="78"/>
       <c r="N20" s="31"/>
       <c r="O20" s="35"/>
       <c r="Q20" s="31"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
       <c r="T20" s="32"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" ht="5.0999999999999996" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B21" s="14"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -2016,15 +2037,12 @@
       <c r="J21" s="35"/>
       <c r="K21" s="31"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="78"/>
       <c r="N21" s="31"/>
       <c r="O21" s="35"/>
       <c r="Q21" s="31"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
       <c r="T21" s="33"/>
     </row>
-    <row r="22" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="22" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="14"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -2036,15 +2054,12 @@
       <c r="J22" s="35"/>
       <c r="K22" s="31"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="78"/>
       <c r="N22" s="31"/>
       <c r="O22" s="35"/>
       <c r="Q22" s="31"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
       <c r="T22" s="33"/>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:28">
       <c r="B23" s="13"/>
       <c r="E23" s="3" t="s">
         <v>10</v>
@@ -2055,21 +2070,21 @@
       <c r="J23" s="35"/>
       <c r="K23" s="31"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="78"/>
       <c r="N23" s="31"/>
       <c r="O23" s="35"/>
       <c r="Q23" s="31"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
       <c r="T23" s="32"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" ht="5.0999999999999996" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B24" s="14"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -2081,15 +2096,12 @@
       <c r="J24" s="35"/>
       <c r="K24" s="31"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="78"/>
       <c r="N24" s="31"/>
       <c r="O24" s="35"/>
       <c r="Q24" s="31"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
       <c r="T24" s="33"/>
     </row>
-    <row r="25" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="25" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="14"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -2101,15 +2113,12 @@
       <c r="J25" s="35"/>
       <c r="K25" s="31"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="78"/>
       <c r="N25" s="31"/>
       <c r="O25" s="35"/>
       <c r="Q25" s="31"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
       <c r="T25" s="33"/>
     </row>
-    <row r="26" spans="2:24">
+    <row r="26" spans="2:28">
       <c r="B26" s="13"/>
       <c r="E26" s="3" t="s">
         <v>28</v>
@@ -2117,25 +2126,28 @@
       <c r="F26" s="44"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="79"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="35"/>
       <c r="K26" s="31"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="78"/>
       <c r="N26" s="31"/>
       <c r="O26" s="35"/>
       <c r="Q26" s="31"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="78"/>
       <c r="T26" s="32"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" ht="5.0999999999999996" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B27" s="14"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -2147,15 +2159,12 @@
       <c r="J27" s="35"/>
       <c r="K27" s="31"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="78"/>
       <c r="N27" s="31"/>
       <c r="O27" s="35"/>
       <c r="Q27" s="31"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
       <c r="T27" s="33"/>
     </row>
-    <row r="28" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="28" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="14"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -2167,18 +2176,15 @@
       <c r="J28" s="35"/>
       <c r="K28" s="31"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="78"/>
       <c r="N28" s="31"/>
       <c r="O28" s="35"/>
       <c r="Q28" s="31"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
       <c r="T28" s="33"/>
     </row>
-    <row r="29" spans="2:24">
+    <row r="29" spans="2:28">
       <c r="B29" s="13"/>
       <c r="E29" s="47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="68"/>
@@ -2191,17 +2197,18 @@
       <c r="N29" s="57"/>
       <c r="O29" s="35"/>
       <c r="Q29" s="31"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
       <c r="T29" s="32"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" ht="4.5" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="4.5" customHeight="1">
       <c r="B30" s="14"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -2213,15 +2220,12 @@
       <c r="J30" s="35"/>
       <c r="K30" s="31"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="78"/>
       <c r="N30" s="31"/>
       <c r="O30" s="35"/>
       <c r="Q30" s="31"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
       <c r="T30" s="33"/>
     </row>
-    <row r="31" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="31" spans="2:28" ht="5.0999999999999996" customHeight="1">
       <c r="B31" s="24"/>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -2236,11 +2240,9 @@
       <c r="N31" s="31"/>
       <c r="O31" s="35"/>
       <c r="Q31" s="31"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
       <c r="T31" s="33"/>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="2:28">
       <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2274,7 @@
       <c r="G33" s="73"/>
       <c r="H33" s="39"/>
       <c r="I33" s="69"/>
-      <c r="J33" s="81"/>
+      <c r="J33" s="76"/>
       <c r="K33" s="38"/>
       <c r="L33" s="39"/>
       <c r="M33" s="18"/>
@@ -2280,8 +2282,6 @@
       <c r="O33" s="35"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="31"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
       <c r="T33" s="32"/>
     </row>
     <row r="34" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -2293,15 +2293,15 @@
       <c r="G34" s="67"/>
       <c r="H34" s="37"/>
       <c r="I34" s="71"/>
-      <c r="J34" s="80"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="31"/>
       <c r="L34" s="35"/>
       <c r="N34" s="25"/>
       <c r="O34" s="34"/>
       <c r="Q34" s="29"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="84"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="77"/>
     </row>
     <row r="35" spans="2:24">
       <c r="B35" s="13" t="s">
@@ -2317,9 +2317,7 @@
       <c r="N35" s="31"/>
       <c r="O35" s="35"/>
       <c r="Q35" s="31"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="86"/>
+      <c r="T35" s="78"/>
     </row>
     <row r="36" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B36" s="23"/>
@@ -2335,9 +2333,7 @@
       <c r="N36" s="31"/>
       <c r="O36" s="35"/>
       <c r="Q36" s="31"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="87"/>
+      <c r="T36" s="15"/>
     </row>
     <row r="37" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B37" s="24"/>
@@ -2353,16 +2349,14 @@
       <c r="N37" s="31"/>
       <c r="O37" s="35"/>
       <c r="Q37" s="31"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="87"/>
+      <c r="T37" s="15"/>
     </row>
     <row r="38" spans="2:24">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
@@ -2371,11 +2365,9 @@
       <c r="N38" s="31"/>
       <c r="O38" s="35"/>
       <c r="Q38" s="31"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="86"/>
+      <c r="T38" s="78"/>
       <c r="X38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -2392,9 +2384,7 @@
       <c r="N39" s="31"/>
       <c r="O39" s="35"/>
       <c r="Q39" s="31"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="87"/>
+      <c r="T39" s="15"/>
     </row>
     <row r="40" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B40" s="24"/>
@@ -2410,9 +2400,7 @@
       <c r="N40" s="31"/>
       <c r="O40" s="35"/>
       <c r="Q40" s="31"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="87"/>
+      <c r="T40" s="15"/>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" s="13" t="s">
@@ -2429,11 +2417,9 @@
       <c r="M41" s="46"/>
       <c r="N41" s="46"/>
       <c r="Q41" s="31"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="86"/>
+      <c r="T41" s="78"/>
       <c r="X41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:24" ht="5.0999999999999996" customHeight="1">
@@ -2448,9 +2434,7 @@
       <c r="K42" s="31"/>
       <c r="L42" s="35"/>
       <c r="Q42" s="31"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="87"/>
+      <c r="T42" s="15"/>
     </row>
     <row r="43" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="24"/>
@@ -2464,9 +2448,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="35"/>
       <c r="Q43" s="31"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="87"/>
+      <c r="T43" s="15"/>
     </row>
     <row r="44" spans="2:24">
       <c r="B44" s="13" t="s">
@@ -2485,11 +2467,9 @@
       <c r="O44" s="57"/>
       <c r="P44" s="57"/>
       <c r="Q44" s="58"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="87"/>
+      <c r="T44" s="15"/>
       <c r="X44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -2644,17 +2624,17 @@
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="47"/>
       <c r="F56" s="44"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
       <c r="T56" s="15"/>
     </row>
     <row r="57" spans="2:20" ht="5.0999999999999996" customHeight="1">
@@ -2668,7 +2648,7 @@
       <c r="I57" s="35"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="58" spans="2:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B58" s="24"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -2679,7 +2659,7 @@
       <c r="I58" s="35"/>
       <c r="T58" s="15"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" hidden="1" outlineLevel="1">
       <c r="B59" s="16" t="s">
         <v>11</v>
       </c>
@@ -2694,22 +2674,22 @@
       <c r="I59" s="35"/>
       <c r="T59" s="15"/>
     </row>
-    <row r="60" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B60" s="16"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="49"/>
+    <row r="60" spans="2:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="86"/>
       <c r="F60" s="41"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="35"/>
       <c r="T60" s="15"/>
     </row>
-    <row r="61" spans="2:20" ht="5.0999999999999996" customHeight="1">
-      <c r="B61" s="16"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="50"/>
+    <row r="61" spans="2:20" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="89"/>
       <c r="F61" s="41"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -2717,7 +2697,9 @@
       <c r="T61" s="15"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="16"/>
+      <c r="B62" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C62" s="62"/>
       <c r="D62" s="62"/>
       <c r="E62" s="52">
@@ -2759,7 +2741,7 @@
         <v>2308</v>
       </c>
       <c r="F65" s="44"/>
-      <c r="G65" s="79"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="31"/>
       <c r="T65" s="15"/>
     </row>
@@ -2769,7 +2751,6 @@
       <c r="D66" s="62"/>
       <c r="E66" s="49"/>
       <c r="F66" s="43"/>
-      <c r="G66" s="78"/>
       <c r="H66" s="31"/>
       <c r="T66" s="15"/>
     </row>
@@ -2779,8 +2760,8 @@
       <c r="D67" s="62"/>
       <c r="E67" s="50"/>
       <c r="F67" s="43"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="92"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="83"/>
       <c r="T67" s="15"/>
     </row>
     <row r="68" spans="2:20">
@@ -2790,9 +2771,9 @@
       <c r="E68" s="52">
         <v>2402</v>
       </c>
-      <c r="F68" s="88"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="90"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="81"/>
       <c r="T68" s="15"/>
     </row>
     <row r="69" spans="2:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -2820,7 +2801,7 @@
     <row r="71" spans="2:20">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2829,7 +2810,7 @@
     <row r="72" spans="2:20">
       <c r="B72" s="5"/>
       <c r="C72" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2838,7 +2819,7 @@
     <row r="73" spans="2:20">
       <c r="B73" s="55"/>
       <c r="C73" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141F4CDB-AB8B-4B82-9DE1-E78A67143D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D39FE5-8120-41EE-816E-58A7B36FC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windows Server 2021</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>令和6年</t>
     <rPh sb="0" eb="2">
       <t>レイワ</t>
@@ -285,10 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sun Valley</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Germanium</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,11 +297,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sun Valley 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Build 22xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows Server 2022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2029年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2035年？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1024,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1276,6 +1282,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1568,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AD50" sqref="AD50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH82" sqref="AH82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1584,22 +1593,22 @@
     <col min="10" max="19" width="6.125" style="3" customWidth="1"/>
     <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
     <col min="21" max="23" width="2.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5" style="4" customWidth="1"/>
     <col min="25" max="25" width="2.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2.625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:24">
+    <row r="1" spans="2:26" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:26">
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -1611,61 +1620,61 @@
       <c r="S2" s="8"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" spans="2:24" ht="16.5" thickBot="1">
+    <row r="3" spans="2:26" ht="16.5" thickBot="1">
       <c r="F3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="J3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="O3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="Q3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="R3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="S3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" ht="16.5" thickBot="1">
+    </row>
+    <row r="4" spans="2:26" ht="16.5" thickBot="1">
       <c r="B4" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="22">
         <v>2024</v>
@@ -1713,7 +1722,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="5" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="12"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -1725,8 +1734,8 @@
       <c r="J5" s="34"/>
       <c r="K5" s="29"/>
       <c r="L5" s="34"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="34"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="29"/>
@@ -1734,7 +1743,7 @@
       <c r="S5" s="25"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:26">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1748,15 +1757,19 @@
       <c r="J6" s="35"/>
       <c r="K6" s="31"/>
       <c r="L6" s="35"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="35"/>
       <c r="Q6" s="31"/>
       <c r="T6" s="32"/>
-      <c r="X6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X6" s="90">
+        <v>45454</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -1768,12 +1781,13 @@
       <c r="J7" s="35"/>
       <c r="K7" s="31"/>
       <c r="L7" s="35"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="35"/>
       <c r="Q7" s="31"/>
       <c r="T7" s="33"/>
     </row>
-    <row r="8" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="8" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B8" s="14"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -1785,12 +1799,13 @@
       <c r="J8" s="35"/>
       <c r="K8" s="31"/>
       <c r="L8" s="35"/>
-      <c r="N8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="35"/>
       <c r="Q8" s="31"/>
       <c r="T8" s="33"/>
     </row>
-    <row r="9" spans="2:24">
+    <row r="9" spans="2:26">
       <c r="B9" s="13"/>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -1802,14 +1817,18 @@
       <c r="J9" s="64"/>
       <c r="K9" s="31"/>
       <c r="L9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="Q9" s="31"/>
       <c r="T9" s="32"/>
-      <c r="X9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X9" s="90">
+        <v>45944</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="23"/>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
@@ -1821,11 +1840,12 @@
       <c r="J10" s="35"/>
       <c r="K10" s="31"/>
       <c r="L10" s="35"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="Q10" s="31"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="11" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="24"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -1837,17 +1857,18 @@
       <c r="J11" s="35"/>
       <c r="K11" s="31"/>
       <c r="L11" s="35"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="Q11" s="31"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B12" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+    <row r="12" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B12" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="41"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
@@ -1855,16 +1876,17 @@
       <c r="J12" s="35"/>
       <c r="K12" s="31"/>
       <c r="L12" s="35"/>
-      <c r="N12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="35"/>
       <c r="Q12" s="31"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+    <row r="13" spans="2:26">
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="44"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1876,15 +1898,18 @@
       <c r="N13" s="46"/>
       <c r="Q13" s="31"/>
       <c r="T13" s="33"/>
-      <c r="X13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
+      <c r="X13" s="90">
+        <v>48226</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="8.1" customHeight="1">
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="41"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -1892,12 +1917,13 @@
       <c r="J14" s="35"/>
       <c r="K14" s="31"/>
       <c r="L14" s="35"/>
-      <c r="N14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="35"/>
       <c r="Q14" s="31"/>
       <c r="T14" s="33"/>
     </row>
-    <row r="15" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="15" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B15" s="23"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -1909,12 +1935,13 @@
       <c r="J15" s="35"/>
       <c r="K15" s="31"/>
       <c r="L15" s="35"/>
-      <c r="N15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="Q15" s="31"/>
       <c r="T15" s="33"/>
     </row>
-    <row r="16" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="16" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B16" s="24"/>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -1926,7 +1953,8 @@
       <c r="J16" s="35"/>
       <c r="K16" s="31"/>
       <c r="L16" s="35"/>
-      <c r="N16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="35"/>
       <c r="Q16" s="31"/>
       <c r="T16" s="33"/>
@@ -1945,21 +1973,22 @@
       <c r="J17" s="35"/>
       <c r="K17" s="31"/>
       <c r="L17" s="35"/>
-      <c r="N17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="35"/>
       <c r="Q17" s="31"/>
       <c r="T17" s="32"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="1" t="s">
-        <v>35</v>
+      <c r="X17" s="90">
+        <v>45573</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="5.0999999999999996" customHeight="1">
@@ -1974,7 +2003,8 @@
       <c r="J18" s="35"/>
       <c r="K18" s="31"/>
       <c r="L18" s="35"/>
-      <c r="N18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="35"/>
       <c r="Q18" s="31"/>
       <c r="T18" s="33"/>
@@ -1991,7 +2021,8 @@
       <c r="J19" s="35"/>
       <c r="K19" s="31"/>
       <c r="L19" s="35"/>
-      <c r="N19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="35"/>
       <c r="Q19" s="31"/>
       <c r="T19" s="33"/>
@@ -2008,21 +2039,22 @@
       <c r="J20" s="35"/>
       <c r="K20" s="31"/>
       <c r="L20" s="35"/>
-      <c r="N20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="35"/>
       <c r="Q20" s="31"/>
       <c r="T20" s="32"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="1" t="s">
-        <v>34</v>
+      <c r="X20" s="90">
+        <v>45944</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:28" ht="5.0999999999999996" customHeight="1">
@@ -2037,7 +2069,8 @@
       <c r="J21" s="35"/>
       <c r="K21" s="31"/>
       <c r="L21" s="35"/>
-      <c r="N21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="Q21" s="31"/>
       <c r="T21" s="33"/>
@@ -2054,7 +2087,8 @@
       <c r="J22" s="35"/>
       <c r="K22" s="31"/>
       <c r="L22" s="35"/>
-      <c r="N22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="Q22" s="31"/>
       <c r="T22" s="33"/>
@@ -2070,18 +2104,22 @@
       <c r="J23" s="35"/>
       <c r="K23" s="31"/>
       <c r="L23" s="35"/>
-      <c r="N23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="Q23" s="31"/>
       <c r="T23" s="32"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="1" t="s">
-        <v>34</v>
+      <c r="X23" s="90">
+        <v>46336</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="5.0999999999999996" customHeight="1">
@@ -2096,7 +2134,8 @@
       <c r="J24" s="35"/>
       <c r="K24" s="31"/>
       <c r="L24" s="35"/>
-      <c r="N24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="35"/>
       <c r="Q24" s="31"/>
       <c r="T24" s="33"/>
@@ -2113,7 +2152,8 @@
       <c r="J25" s="35"/>
       <c r="K25" s="31"/>
       <c r="L25" s="35"/>
-      <c r="N25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="35"/>
       <c r="Q25" s="31"/>
       <c r="T25" s="33"/>
@@ -2121,7 +2161,7 @@
     <row r="26" spans="2:28">
       <c r="B26" s="13"/>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="2"/>
@@ -2130,21 +2170,22 @@
       <c r="J26" s="35"/>
       <c r="K26" s="31"/>
       <c r="L26" s="35"/>
-      <c r="N26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="35"/>
       <c r="Q26" s="31"/>
       <c r="T26" s="32"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-      <c r="X26" s="1" t="s">
-        <v>47</v>
+      <c r="X26" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:28" ht="5.0999999999999996" customHeight="1">
@@ -2159,7 +2200,8 @@
       <c r="J27" s="35"/>
       <c r="K27" s="31"/>
       <c r="L27" s="35"/>
-      <c r="N27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="35"/>
       <c r="O27" s="35"/>
       <c r="Q27" s="31"/>
       <c r="T27" s="33"/>
@@ -2176,7 +2218,8 @@
       <c r="J28" s="35"/>
       <c r="K28" s="31"/>
       <c r="L28" s="35"/>
-      <c r="N28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="35"/>
       <c r="O28" s="35"/>
       <c r="Q28" s="31"/>
       <c r="T28" s="33"/>
@@ -2184,7 +2227,7 @@
     <row r="29" spans="2:28">
       <c r="B29" s="13"/>
       <c r="E29" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="68"/>
@@ -2201,11 +2244,11 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="X29" s="1" t="s">
-        <v>50</v>
+      <c r="Z29" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:28" ht="4.5" customHeight="1">
@@ -2220,7 +2263,8 @@
       <c r="J30" s="35"/>
       <c r="K30" s="31"/>
       <c r="L30" s="35"/>
-      <c r="N30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="35"/>
       <c r="O30" s="35"/>
       <c r="Q30" s="31"/>
       <c r="T30" s="33"/>
@@ -2237,7 +2281,8 @@
       <c r="J31" s="35"/>
       <c r="K31" s="31"/>
       <c r="L31" s="35"/>
-      <c r="N31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="35"/>
       <c r="O31" s="35"/>
       <c r="Q31" s="31"/>
       <c r="T31" s="33"/>
@@ -2265,7 +2310,7 @@
       <c r="S32" s="58"/>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="33" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B33" s="17"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
@@ -2277,14 +2322,14 @@
       <c r="J33" s="76"/>
       <c r="K33" s="38"/>
       <c r="L33" s="39"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="35"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="31"/>
       <c r="T33" s="32"/>
     </row>
-    <row r="34" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="34" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B34" s="14"/>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -2296,14 +2341,14 @@
       <c r="J34" s="75"/>
       <c r="K34" s="31"/>
       <c r="L34" s="35"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="34"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="34"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
       <c r="T34" s="77"/>
     </row>
-    <row r="35" spans="2:24">
+    <row r="35" spans="2:26">
       <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
@@ -2314,12 +2359,15 @@
       <c r="I35" s="46"/>
       <c r="K35" s="31"/>
       <c r="L35" s="35"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="35"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="35"/>
       <c r="Q35" s="31"/>
       <c r="T35" s="78"/>
-    </row>
-    <row r="36" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X35" s="90">
+        <v>46399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B36" s="23"/>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
@@ -2330,12 +2378,12 @@
       <c r="I36" s="35"/>
       <c r="K36" s="31"/>
       <c r="L36" s="35"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="35"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="35"/>
       <c r="Q36" s="31"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="37" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B37" s="24"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -2346,12 +2394,12 @@
       <c r="I37" s="35"/>
       <c r="K37" s="31"/>
       <c r="L37" s="35"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="35"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="35"/>
       <c r="Q37" s="31"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="2:24">
+    <row r="38" spans="2:26">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -2362,15 +2410,18 @@
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="35"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="35"/>
       <c r="Q38" s="31"/>
       <c r="T38" s="78"/>
-      <c r="X38" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X38" s="90">
+        <v>47127</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B39" s="23"/>
       <c r="C39" s="60"/>
       <c r="D39" s="60"/>
@@ -2381,12 +2432,12 @@
       <c r="I39" s="35"/>
       <c r="K39" s="31"/>
       <c r="L39" s="35"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="35"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="35"/>
       <c r="Q39" s="31"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="40" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B40" s="24"/>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
@@ -2397,14 +2448,14 @@
       <c r="I40" s="35"/>
       <c r="K40" s="31"/>
       <c r="L40" s="35"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="35"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="35"/>
       <c r="Q40" s="31"/>
       <c r="T40" s="15"/>
     </row>
-    <row r="41" spans="2:24">
+    <row r="41" spans="2:26">
       <c r="B41" s="13" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="44"/>
@@ -2415,14 +2466,16 @@
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
       <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
       <c r="Q41" s="31"/>
       <c r="T41" s="78"/>
-      <c r="X41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X41" s="90">
+        <v>48135</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B42" s="23"/>
       <c r="C42" s="60"/>
       <c r="D42" s="60"/>
@@ -2436,7 +2489,7 @@
       <c r="Q42" s="31"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="43" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B43" s="24"/>
       <c r="C43" s="61"/>
       <c r="D43" s="61"/>
@@ -2450,9 +2503,9 @@
       <c r="Q43" s="31"/>
       <c r="T43" s="15"/>
     </row>
-    <row r="44" spans="2:24">
+    <row r="44" spans="2:26">
       <c r="B44" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="56"/>
@@ -2468,11 +2521,14 @@
       <c r="P44" s="57"/>
       <c r="Q44" s="58"/>
       <c r="T44" s="15"/>
-      <c r="X44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="X44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B45" s="17"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
@@ -2493,7 +2549,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="46" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="14"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -2506,7 +2562,7 @@
       <c r="L46" s="35"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:26">
       <c r="B47" s="13" t="s">
         <v>5</v>
       </c>
@@ -2518,8 +2574,11 @@
       <c r="K47" s="31"/>
       <c r="L47" s="35"/>
       <c r="T47" s="15"/>
-    </row>
-    <row r="48" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="X47" s="90">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B48" s="23"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
@@ -2532,7 +2591,7 @@
       <c r="L48" s="35"/>
       <c r="T48" s="15"/>
     </row>
-    <row r="49" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="49" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B49" s="24"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
@@ -2545,7 +2604,7 @@
       <c r="L49" s="35"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:24">
       <c r="B50" s="13" t="s">
         <v>6</v>
       </c>
@@ -2557,8 +2616,11 @@
       <c r="K50" s="31"/>
       <c r="L50" s="35"/>
       <c r="T50" s="15"/>
-    </row>
-    <row r="51" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="X50" s="90">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B51" s="23"/>
       <c r="C51" s="60"/>
       <c r="D51" s="60"/>
@@ -2571,7 +2633,7 @@
       <c r="L51" s="35"/>
       <c r="T51" s="15"/>
     </row>
-    <row r="52" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="52" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="24"/>
       <c r="C52" s="61"/>
       <c r="D52" s="61"/>
@@ -2584,7 +2646,7 @@
       <c r="L52" s="35"/>
       <c r="T52" s="15"/>
     </row>
-    <row r="53" spans="2:20" ht="17.25" customHeight="1">
+    <row r="53" spans="2:24" ht="17.25" customHeight="1">
       <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
@@ -2595,8 +2657,11 @@
       <c r="K53" s="31"/>
       <c r="L53" s="35"/>
       <c r="T53" s="15"/>
-    </row>
-    <row r="54" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="X53" s="90">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B54" s="23"/>
       <c r="C54" s="60"/>
       <c r="D54" s="60"/>
@@ -2609,7 +2674,7 @@
       <c r="L54" s="35"/>
       <c r="T54" s="15"/>
     </row>
-    <row r="55" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="55" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B55" s="24"/>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
@@ -2622,9 +2687,9 @@
       <c r="L55" s="35"/>
       <c r="T55" s="15"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:24">
       <c r="B56" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
@@ -2636,8 +2701,11 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="T56" s="15"/>
-    </row>
-    <row r="57" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="X56" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B57" s="23"/>
       <c r="C57" s="60"/>
       <c r="D57" s="60"/>
@@ -2648,7 +2716,7 @@
       <c r="I57" s="35"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="2:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="58" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B58" s="24"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -2659,7 +2727,7 @@
       <c r="I58" s="35"/>
       <c r="T58" s="15"/>
     </row>
-    <row r="59" spans="2:20" hidden="1" outlineLevel="1">
+    <row r="59" spans="2:24" hidden="1" outlineLevel="1">
       <c r="B59" s="16" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2742,7 @@
       <c r="I59" s="35"/>
       <c r="T59" s="15"/>
     </row>
-    <row r="60" spans="2:20" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="60" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B60" s="84"/>
       <c r="C60" s="85"/>
       <c r="D60" s="85"/>
@@ -2685,7 +2753,7 @@
       <c r="I60" s="35"/>
       <c r="T60" s="15"/>
     </row>
-    <row r="61" spans="2:20" ht="5.0999999999999996" customHeight="1" collapsed="1">
+    <row r="61" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="B61" s="87"/>
       <c r="C61" s="88"/>
       <c r="D61" s="88"/>
@@ -2696,7 +2764,7 @@
       <c r="I61" s="35"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:24">
       <c r="B62" s="16" t="s">
         <v>11</v>
       </c>
@@ -2710,8 +2778,11 @@
       <c r="H62" s="37"/>
       <c r="I62" s="35"/>
       <c r="T62" s="15"/>
-    </row>
-    <row r="63" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="X62" s="90">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B63" s="16"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
@@ -2722,7 +2793,7 @@
       <c r="I63" s="35"/>
       <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="64" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B64" s="16"/>
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
@@ -2733,7 +2804,7 @@
       <c r="I64" s="35"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="2:24">
       <c r="B65" s="16"/>
       <c r="C65" s="62"/>
       <c r="D65" s="62"/>
@@ -2744,8 +2815,11 @@
       <c r="G65" s="2"/>
       <c r="H65" s="31"/>
       <c r="T65" s="15"/>
-    </row>
-    <row r="66" spans="2:20" ht="5.0999999999999996" customHeight="1">
+      <c r="X65" s="90">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B66" s="16"/>
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
@@ -2754,7 +2828,7 @@
       <c r="H66" s="31"/>
       <c r="T66" s="15"/>
     </row>
-    <row r="67" spans="2:20" ht="5.0999999999999996" customHeight="1">
+    <row r="67" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B67" s="16"/>
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
@@ -2764,7 +2838,7 @@
       <c r="H67" s="83"/>
       <c r="T67" s="15"/>
     </row>
-    <row r="68" spans="2:20">
+    <row r="68" spans="2:24">
       <c r="B68" s="14"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
@@ -2776,7 +2850,7 @@
       <c r="H68" s="81"/>
       <c r="T68" s="15"/>
     </row>
-    <row r="69" spans="2:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="69" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B69" s="17"/>
       <c r="C69" s="53"/>
       <c r="D69" s="53"/>
@@ -2797,41 +2871,41 @@
       <c r="S69" s="18"/>
       <c r="T69" s="19"/>
     </row>
-    <row r="70" spans="2:20" ht="5.0999999999999996" customHeight="1"/>
-    <row r="71" spans="2:20">
+    <row r="70" spans="2:24" ht="5.0999999999999996" customHeight="1"/>
+    <row r="71" spans="2:24">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:24">
       <c r="B72" s="5"/>
       <c r="C72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:24">
       <c r="B73" s="55"/>
       <c r="C73" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:24">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:24">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D39FE5-8120-41EE-816E-58A7B36FC283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715224D-304E-4389-A18F-7796D971B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34050" yWindow="1620" windowWidth="21225" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -235,20 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R19年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R20年</t>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>??H2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -323,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +350,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -622,32 +622,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -813,10 +789,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dashed">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
       <top/>
@@ -827,113 +803,24 @@
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1026,11 +913,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1064,7 +1072,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1074,7 +1081,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1114,7 +1120,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,12 +1141,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1149,9 +1148,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1160,10 +1156,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,22 +1177,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1205,82 +1201,58 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1294,6 +1266,84 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB75"/>
+  <dimension ref="B1:Z75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH82" sqref="AH82"/>
+      <selection activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1590,18 +1640,17 @@
     <col min="5" max="5" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
     <col min="7" max="9" width="5.625" style="3" customWidth="1"/>
-    <col min="10" max="19" width="6.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
-    <col min="21" max="23" width="2.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5" style="4" customWidth="1"/>
+    <col min="10" max="18" width="6.125" style="3" customWidth="1"/>
+    <col min="19" max="21" width="2.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" style="4" customWidth="1"/>
+    <col min="23" max="23" width="2.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:26">
+    <row r="1" spans="2:24" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:24">
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
@@ -1616,67 +1665,59 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="2:26" ht="16.5" thickBot="1">
-      <c r="F3" s="26" t="s">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="2:24" ht="16.5" thickBot="1">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B4" s="20" t="s">
+    </row>
+    <row r="4" spans="2:24" ht="16.5" thickBot="1">
+      <c r="B4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="63" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>2024</v>
       </c>
       <c r="G4" s="10">
@@ -1712,1200 +1753,1417 @@
       <c r="Q4" s="10">
         <v>2035</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="11">
         <v>2036</v>
       </c>
-      <c r="S4" s="10">
-        <v>2037</v>
-      </c>
-      <c r="T4" s="11">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="5.0999999999999996" customHeight="1">
+    </row>
+    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B5" s="12"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="2:26">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="63"/>
+    </row>
+    <row r="6" spans="2:24">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="Q6" s="31"/>
-      <c r="T6" s="32"/>
-      <c r="X6" s="90">
+      <c r="F6" s="40"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="64"/>
+      <c r="V6" s="103">
         <v>45454</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="5.0999999999999996" customHeight="1">
+    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="Q7" s="31"/>
-      <c r="T7" s="33"/>
-    </row>
-    <row r="8" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="64"/>
+    </row>
+    <row r="8" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B8" s="14"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="31"/>
-      <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="2:26">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="64"/>
+    </row>
+    <row r="9" spans="2:24">
       <c r="B9" s="13"/>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="31"/>
-      <c r="T9" s="32"/>
-      <c r="X9" s="90">
+      <c r="F9" s="40"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="64"/>
+      <c r="V9" s="105">
         <v>45944</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="Q10" s="31"/>
-      <c r="T10" s="32"/>
-    </row>
-    <row r="11" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="24"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="Q11" s="31"/>
-      <c r="T11" s="32"/>
-    </row>
-    <row r="12" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B12" s="91" t="s">
+    <row r="10" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="64"/>
+    </row>
+    <row r="11" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="2:24" ht="8.1" customHeight="1">
+      <c r="B12" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="Q12" s="31"/>
-      <c r="T12" s="32"/>
-    </row>
-    <row r="13" spans="2:26">
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="Q13" s="31"/>
-      <c r="T13" s="33"/>
-      <c r="X13" s="90">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="64"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="64"/>
+      <c r="V13" s="76">
         <v>48226</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="8.1" customHeight="1">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="Q14" s="31"/>
-      <c r="T14" s="33"/>
-    </row>
-    <row r="15" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="Q15" s="31"/>
-      <c r="T15" s="33"/>
-    </row>
-    <row r="16" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B16" s="24"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="Q16" s="31"/>
-      <c r="T16" s="33"/>
-    </row>
-    <row r="17" spans="2:28">
+    <row r="14" spans="2:24" ht="8.1" customHeight="1">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="Q17" s="31"/>
-      <c r="T17" s="32"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="90">
+      <c r="V17" s="103">
         <v>45573</v>
       </c>
+      <c r="X17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="Z17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" ht="5.0999999999999996" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B18" s="14"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="Q18" s="31"/>
-      <c r="T18" s="33"/>
-    </row>
-    <row r="19" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B19" s="14"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="Q19" s="31"/>
-      <c r="T19" s="33"/>
-    </row>
-    <row r="20" spans="2:28">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="64"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="13"/>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="Q20" s="31"/>
-      <c r="T20" s="32"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="90">
+      <c r="V20" s="105">
         <v>45944</v>
       </c>
+      <c r="X20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="Z20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" ht="5.0999999999999996" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B21" s="14"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="Q21" s="31"/>
-      <c r="T21" s="33"/>
-    </row>
-    <row r="22" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="64"/>
+    </row>
+    <row r="22" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B22" s="14"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="Q22" s="31"/>
-      <c r="T22" s="33"/>
-    </row>
-    <row r="23" spans="2:28">
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="64"/>
+    </row>
+    <row r="23" spans="2:26">
       <c r="B23" s="13"/>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="Q23" s="31"/>
-      <c r="T23" s="32"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="90">
+      <c r="V23" s="76">
         <v>46336</v>
       </c>
+      <c r="X23" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="Z23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="5.0999999999999996" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="Q24" s="31"/>
-      <c r="T24" s="33"/>
-    </row>
-    <row r="25" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="64"/>
+    </row>
+    <row r="25" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="14"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="Q25" s="31"/>
-      <c r="T25" s="33"/>
-    </row>
-    <row r="26" spans="2:28">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="64"/>
+    </row>
+    <row r="26" spans="2:26">
       <c r="B26" s="13"/>
       <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="Q26" s="31"/>
-      <c r="T26" s="32"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="4" t="s">
+      <c r="V26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z26" s="1" t="s">
+    </row>
+    <row r="27" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B27" s="14"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="64"/>
+    </row>
+    <row r="28" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B28" s="14"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="64"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="13"/>
+      <c r="E29" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="X29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="5.0999999999999996" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="Q27" s="31"/>
-      <c r="T27" s="33"/>
-    </row>
-    <row r="28" spans="2:28" ht="5.0999999999999996" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="Q28" s="31"/>
-      <c r="T28" s="33"/>
-    </row>
-    <row r="29" spans="2:28">
-      <c r="B29" s="13"/>
-      <c r="E29" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="35"/>
-      <c r="Q29" s="31"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="Z29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="4.5" customHeight="1">
-      <c r="B30" s="14"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="Q30" s="31"/>
-      <c r="T30" s="33"/>
-    </row>
-    <row r="31" spans="2:28" ht="5.0999999999999996" customHeight="1">
-      <c r="B31" s="24"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="Q31" s="31"/>
-      <c r="T31" s="33"/>
-    </row>
-    <row r="32" spans="2:28">
-      <c r="B32" s="14" t="s">
+    </row>
+    <row r="30" spans="2:26" ht="4.5" customHeight="1" thickBot="1">
+      <c r="B30" s="16"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="97"/>
+    </row>
+    <row r="31" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="98"/>
+    </row>
+    <row r="32" spans="2:26" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B32" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B33" s="17"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="31"/>
-      <c r="T33" s="32"/>
-    </row>
-    <row r="34" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="14"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="34"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="77"/>
-    </row>
-    <row r="35" spans="2:26">
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="99"/>
+    </row>
+    <row r="33" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="98"/>
+    </row>
+    <row r="34" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="63"/>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="35"/>
-      <c r="Q35" s="31"/>
-      <c r="T35" s="78"/>
-      <c r="X35" s="90">
+      <c r="F35" s="40"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="64"/>
+      <c r="V35" s="76">
         <v>46399</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B36" s="23"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="35"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="35"/>
-      <c r="Q36" s="31"/>
-      <c r="T36" s="15"/>
-    </row>
-    <row r="37" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B37" s="24"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="35"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="35"/>
-      <c r="Q37" s="31"/>
-      <c r="T37" s="15"/>
-    </row>
-    <row r="38" spans="2:26">
+    <row r="36" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="64"/>
+    </row>
+    <row r="37" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="64"/>
+    </row>
+    <row r="38" spans="2:24">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="35"/>
-      <c r="Q38" s="31"/>
-      <c r="T38" s="78"/>
-      <c r="X38" s="90">
+      <c r="F38" s="40"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="64"/>
+      <c r="V38" s="76">
         <v>47127</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="X38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B39" s="23"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="35"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="35"/>
-      <c r="Q39" s="31"/>
-      <c r="T39" s="15"/>
-    </row>
-    <row r="40" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B40" s="24"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="35"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="35"/>
-      <c r="Q40" s="31"/>
-      <c r="T40" s="15"/>
-    </row>
-    <row r="41" spans="2:26">
+    <row r="39" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B39" s="21"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="64"/>
+    </row>
+    <row r="40" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="64"/>
+    </row>
+    <row r="41" spans="2:24">
       <c r="B41" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="Q41" s="31"/>
-      <c r="T41" s="78"/>
-      <c r="X41" s="90">
+      <c r="F41" s="39"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="64"/>
+      <c r="V41" s="76">
         <v>48135</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B42" s="23"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="35"/>
-      <c r="Q42" s="31"/>
-      <c r="T42" s="15"/>
-    </row>
-    <row r="43" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B43" s="24"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="35"/>
-      <c r="Q43" s="31"/>
-      <c r="T43" s="15"/>
-    </row>
-    <row r="44" spans="2:26">
+    <row r="42" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="64"/>
+    </row>
+    <row r="43" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B43" s="22"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="64"/>
+    </row>
+    <row r="44" spans="2:24">
       <c r="B44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="58"/>
-      <c r="T44" s="15"/>
-      <c r="X44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z44" s="1" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="64"/>
+      <c r="V44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B45" s="17"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="19"/>
-    </row>
-    <row r="46" spans="2:26" ht="5.0999999999999996" customHeight="1">
+    <row r="45" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B45" s="16"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="97"/>
+    </row>
+    <row r="46" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B46" s="14"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="35"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="35"/>
-      <c r="T46" s="15"/>
-    </row>
-    <row r="47" spans="2:26">
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="64"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="35"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="35"/>
-      <c r="T47" s="15"/>
-      <c r="X47" s="90">
+      <c r="F47" s="40"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="64"/>
+      <c r="V47" s="105">
         <v>45944</v>
       </c>
     </row>
-    <row r="48" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B48" s="23"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="35"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="35"/>
-      <c r="T48" s="15"/>
-    </row>
-    <row r="49" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B49" s="24"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="35"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="35"/>
-      <c r="T49" s="15"/>
-    </row>
-    <row r="50" spans="2:24">
+    <row r="48" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B48" s="21"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="64"/>
+    </row>
+    <row r="49" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B49" s="22"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="64"/>
+    </row>
+    <row r="50" spans="2:22">
       <c r="B50" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="35"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="35"/>
-      <c r="T50" s="15"/>
-      <c r="X50" s="90">
+      <c r="F50" s="40"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="64"/>
+      <c r="V50" s="105">
         <v>45944</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B51" s="23"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="35"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="35"/>
-      <c r="T51" s="15"/>
-    </row>
-    <row r="52" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="24"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="35"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="35"/>
-      <c r="T52" s="15"/>
-    </row>
-    <row r="53" spans="2:24" ht="17.25" customHeight="1">
+    <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B51" s="21"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="93"/>
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="93"/>
+      <c r="R51" s="64"/>
+    </row>
+    <row r="52" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B52" s="22"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="64"/>
+    </row>
+    <row r="53" spans="2:22" ht="17.25" customHeight="1">
       <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="35"/>
-      <c r="T53" s="15"/>
-      <c r="X53" s="90">
+      <c r="F53" s="39"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="64"/>
+      <c r="V53" s="76">
         <v>46308</v>
       </c>
     </row>
-    <row r="54" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B54" s="23"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="35"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="35"/>
-      <c r="T54" s="15"/>
-    </row>
-    <row r="55" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="24"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="35"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="35"/>
-      <c r="T55" s="15"/>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="16" t="s">
+    <row r="54" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="64"/>
+      <c r="V54" s="104"/>
+    </row>
+    <row r="55" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B55" s="22"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="93"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="64"/>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="T56" s="15"/>
-      <c r="X56" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B57" s="23"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="35"/>
-      <c r="T57" s="15"/>
-    </row>
-    <row r="58" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B58" s="24"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="35"/>
-      <c r="T58" s="15"/>
-    </row>
-    <row r="59" spans="2:24" hidden="1" outlineLevel="1">
-      <c r="B59" s="16" t="s">
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="93"/>
+      <c r="Q56" s="93"/>
+      <c r="R56" s="64"/>
+      <c r="V56" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B57" s="21"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="93"/>
+      <c r="Q57" s="93"/>
+      <c r="R57" s="64"/>
+    </row>
+    <row r="58" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B58" s="22"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="93"/>
+      <c r="Q58" s="93"/>
+      <c r="R58" s="64"/>
+    </row>
+    <row r="59" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="B59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="52">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="46">
         <v>2208</v>
       </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="35"/>
-      <c r="T59" s="15"/>
-    </row>
-    <row r="60" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="35"/>
-      <c r="T60" s="15"/>
-    </row>
-    <row r="61" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="35"/>
-      <c r="T61" s="15"/>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" s="16" t="s">
+      <c r="F59" s="39"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="93"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="93"/>
+      <c r="R59" s="64"/>
+    </row>
+    <row r="60" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B60" s="70"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
+      <c r="L60" s="93"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="93"/>
+      <c r="Q60" s="93"/>
+      <c r="R60" s="64"/>
+    </row>
+    <row r="61" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B61" s="73"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="64"/>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="52">
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="46">
         <v>2302</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="35"/>
-      <c r="T62" s="15"/>
-      <c r="X62" s="90">
+      <c r="F62" s="39"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="64"/>
+      <c r="V62" s="103">
         <v>45545</v>
       </c>
     </row>
-    <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B63" s="16"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="35"/>
-      <c r="T63" s="15"/>
-    </row>
-    <row r="64" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B64" s="16"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="35"/>
-      <c r="T64" s="15"/>
-    </row>
-    <row r="65" spans="2:24">
-      <c r="B65" s="16"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="52">
+    <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B63" s="15"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="64"/>
+    </row>
+    <row r="64" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B64" s="15"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="64"/>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="15"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="46">
         <v>2308</v>
       </c>
-      <c r="F65" s="44"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="31"/>
-      <c r="T65" s="15"/>
-      <c r="X65" s="90">
+      <c r="F65" s="39"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="64"/>
+      <c r="V65" s="103">
         <v>45727</v>
       </c>
     </row>
-    <row r="66" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B66" s="16"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="43"/>
-      <c r="H66" s="31"/>
-      <c r="T66" s="15"/>
-    </row>
-    <row r="67" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B67" s="16"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="83"/>
-      <c r="T67" s="15"/>
-    </row>
-    <row r="68" spans="2:24">
+    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B66" s="15"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="64"/>
+    </row>
+    <row r="67" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B67" s="15"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="68"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="64"/>
+    </row>
+    <row r="68" spans="2:22">
       <c r="B68" s="14"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="52">
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="46">
         <v>2402</v>
       </c>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="81"/>
-      <c r="T68" s="15"/>
-    </row>
-    <row r="69" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B69" s="17"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="19"/>
-    </row>
-    <row r="70" spans="2:24" ht="5.0999999999999996" customHeight="1"/>
-    <row r="71" spans="2:24">
+      <c r="F68" s="65"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="64"/>
+    </row>
+    <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B69" s="16"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="97"/>
+    </row>
+    <row r="70" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
+    <row r="71" spans="2:22">
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="2:24">
+    <row r="72" spans="2:22">
       <c r="B72" s="5"/>
       <c r="C72" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="2:24">
-      <c r="B73" s="55"/>
+    <row r="73" spans="2:22">
+      <c r="B73" s="49"/>
       <c r="C73" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="2:24">
+    <row r="74" spans="2:22">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:24">
+    <row r="75" spans="2:22">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715224D-304E-4389-A18F-7796D971B8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F654D6-9AE3-4784-A04B-6A4A1DD1789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34050" yWindow="1620" windowWidth="21225" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34590" yWindow="1245" windowWidth="25515" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -304,11 +304,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Windows 10 LTSC 2019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 11 LTSC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 10 LTSC 2021</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.E+00"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -397,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -746,19 +761,6 @@
     </border>
     <border>
       <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -776,7 +778,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
         <color indexed="64"/>
       </left>
       <right/>
@@ -789,10 +802,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
@@ -800,30 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -832,63 +821,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1020,16 +952,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1038,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1156,10 +1110,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,24 +1131,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1204,146 +1152,179 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z75"/>
+  <dimension ref="B1:Z84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V62" sqref="V62"/>
+      <selection activeCell="P38" sqref="F38:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1649,8 +1630,8 @@
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:24">
+    <row r="1" spans="2:26" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:26">
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
@@ -1667,7 +1648,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="2:24" ht="16.5" thickBot="1">
+    <row r="3" spans="2:26" ht="16.5" thickBot="1">
       <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
@@ -1708,13 +1689,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="16.5" thickBot="1">
+    <row r="4" spans="2:26" ht="16.5" thickBot="1">
       <c r="B4" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="20">
@@ -1757,7 +1738,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="5" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B5" s="12"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -1774,9 +1755,9 @@
       <c r="O5" s="29"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="27"/>
-      <c r="R5" s="63"/>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="R5" s="61"/>
+    </row>
+    <row r="6" spans="2:26" hidden="1" outlineLevel="1">
       <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1793,21 +1774,20 @@
       <c r="M6" s="28"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
-      <c r="P6" s="93"/>
       <c r="Q6" s="28"/>
-      <c r="R6" s="64"/>
-      <c r="V6" s="103">
+      <c r="R6" s="62"/>
+      <c r="V6" s="90">
         <v>45454</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="7" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="B7" s="14"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="36"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -1818,15 +1798,14 @@
       <c r="M7" s="28"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="93"/>
       <c r="Q7" s="28"/>
-      <c r="R7" s="64"/>
-    </row>
-    <row r="8" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="44"/>
+      <c r="R7" s="62"/>
+    </row>
+    <row r="8" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="36"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -1837,40 +1816,43 @@
       <c r="M8" s="28"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="64"/>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="13"/>
-      <c r="E9" s="3" t="s">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="62" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="40"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="95"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="84"/>
       <c r="K9" s="28"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="93"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="64"/>
-      <c r="V9" s="105">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="62"/>
+      <c r="V9" s="92">
         <v>45944</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="5.0999999999999996" customHeight="1">
+    <row r="10" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B10" s="21"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="36"/>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
@@ -1878,18 +1860,17 @@
       <c r="J10" s="30"/>
       <c r="K10" s="28"/>
       <c r="L10" s="30"/>
-      <c r="M10" s="93"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="64"/>
-    </row>
-    <row r="11" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="62"/>
+    </row>
+    <row r="11" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B11" s="22"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="36"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -1897,64 +1878,58 @@
       <c r="J11" s="30"/>
       <c r="K11" s="28"/>
       <c r="L11" s="30"/>
-      <c r="M11" s="93"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="64"/>
-    </row>
-    <row r="12" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B12" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="62"/>
+    </row>
+    <row r="12" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B12" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="64"/>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="64"/>
-      <c r="V13" s="76">
-        <v>48226</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="8.1" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="62"/>
+      <c r="V12" s="69">
+        <v>47127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="62"/>
+    </row>
+    <row r="14" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="36"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
@@ -1965,34 +1940,48 @@
       <c r="M14" s="28"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="30"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="62"/>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="B15" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="105"/>
       <c r="K15" s="28"/>
       <c r="L15" s="30"/>
       <c r="M15" s="28"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="64"/>
-    </row>
-    <row r="16" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="44"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="111">
+        <v>46399</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="36"/>
       <c r="G16" s="32"/>
       <c r="H16" s="32"/>
@@ -2000,51 +1989,37 @@
       <c r="J16" s="30"/>
       <c r="K16" s="28"/>
       <c r="L16" s="30"/>
-      <c r="M16" s="28"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="64"/>
-    </row>
-    <row r="17" spans="2:26">
-      <c r="B17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="62"/>
+    </row>
+    <row r="17" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="30"/>
       <c r="K17" s="28"/>
       <c r="L17" s="30"/>
-      <c r="M17" s="28"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="103">
-        <v>45573</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="43"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="62"/>
+    </row>
+    <row r="18" spans="2:26" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B18" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="36"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -2055,37 +2030,42 @@
       <c r="M18" s="28"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="64"/>
-    </row>
-    <row r="19" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="64"/>
-    </row>
-    <row r="20" spans="2:26">
-      <c r="B20" s="13"/>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="62"/>
+    </row>
+    <row r="19" spans="2:26" hidden="1" outlineLevel="1">
+      <c r="B19" s="93"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="62"/>
+      <c r="V19" s="69">
+        <v>48226</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B20" s="93"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="30"/>
       <c r="K20" s="28"/>
@@ -2093,27 +2073,15 @@
       <c r="M20" s="28"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="105">
-        <v>45944</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="43"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="62"/>
+    </row>
+    <row r="21" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="65"/>
       <c r="F21" s="36"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -2124,15 +2092,15 @@
       <c r="M21" s="28"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="64"/>
-    </row>
-    <row r="22" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B22" s="14"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="62"/>
+    </row>
+    <row r="22" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B22" s="22"/>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
-      <c r="E22" s="44"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="36"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -2143,36 +2111,40 @@
       <c r="M22" s="28"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="64"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="2:26">
-      <c r="B23" s="13"/>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
+      <c r="B23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="F23" s="39"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="93"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="30"/>
       <c r="K23" s="28"/>
       <c r="L23" s="30"/>
       <c r="M23" s="28"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="64"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="76">
-        <v>46336</v>
+      <c r="V23" s="90">
+        <v>45573</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>47</v>
@@ -2180,9 +2152,9 @@
     </row>
     <row r="24" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B24" s="14"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="43"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="36"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -2193,15 +2165,15 @@
       <c r="M24" s="28"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="64"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="62"/>
     </row>
     <row r="25" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B25" s="14"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="44"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="36"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -2212,46 +2184,48 @@
       <c r="M25" s="28"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="64"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="62"/>
     </row>
     <row r="26" spans="2:26">
       <c r="B26" s="13"/>
-      <c r="E26" s="3" t="s">
-        <v>27</v>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="62" t="s">
+        <v>9</v>
       </c>
       <c r="F26" s="39"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="30"/>
       <c r="K26" s="28"/>
       <c r="L26" s="30"/>
       <c r="M26" s="28"/>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="64"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="62"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="4" t="s">
-        <v>42</v>
+      <c r="V26" s="92">
+        <v>45944</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B27" s="14"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="43"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="65"/>
       <c r="F27" s="36"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -2262,15 +2236,15 @@
       <c r="M27" s="28"/>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="64"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="62"/>
     </row>
     <row r="28" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B28" s="14"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="44"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="36"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -2281,895 +2255,914 @@
       <c r="M28" s="28"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="64"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="62"/>
     </row>
     <row r="29" spans="2:26">
       <c r="B29" s="13"/>
-      <c r="E29" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="30"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="64"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="62"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
+      <c r="V29" s="69">
+        <v>46336</v>
+      </c>
       <c r="X29" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B30" s="16"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="97"/>
-    </row>
-    <row r="31" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="98"/>
-    </row>
-    <row r="32" spans="2:26" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B32" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="99"/>
-    </row>
-    <row r="33" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="98"/>
-    </row>
-    <row r="34" spans="2:24" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="63"/>
-    </row>
-    <row r="35" spans="2:24">
-      <c r="B35" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="64"/>
-      <c r="V35" s="76">
-        <v>46399</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="5.0999999999999996" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B30" s="14"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="62"/>
+    </row>
+    <row r="31" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B31" s="14"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="62"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="13"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B33" s="14"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="62"/>
+    </row>
+    <row r="34" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B34" s="14"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="62"/>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="13"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B36" s="21"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="43"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="36"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="93"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="28"/>
       <c r="L36" s="30"/>
       <c r="M36" s="28"/>
       <c r="N36" s="30"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="64"/>
-    </row>
-    <row r="37" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="O36" s="105"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="62"/>
+    </row>
+    <row r="37" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B37" s="22"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="44"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="36"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="93"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="28"/>
       <c r="L37" s="30"/>
       <c r="M37" s="28"/>
       <c r="N37" s="30"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="64"/>
-    </row>
-    <row r="38" spans="2:24">
-      <c r="B38" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="62"/>
+    </row>
+    <row r="38" spans="2:26" ht="15.75" customHeight="1">
+      <c r="B38" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="114"/>
       <c r="Q38" s="28"/>
-      <c r="R38" s="64"/>
-      <c r="V38" s="76">
-        <v>47127</v>
-      </c>
+      <c r="R38" s="62"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
       <c r="X38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="64"/>
-    </row>
-    <row r="40" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="64"/>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="B41" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="93"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="64"/>
-      <c r="V41" s="76">
-        <v>48135</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="64"/>
-    </row>
-    <row r="43" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="93"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="64"/>
-    </row>
-    <row r="44" spans="2:24">
+        <v>46</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" ht="4.5" customHeight="1" thickBot="1">
+      <c r="B39" s="16"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="85"/>
+    </row>
+    <row r="40" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="86"/>
+    </row>
+    <row r="41" spans="2:26" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B41" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="87"/>
+    </row>
+    <row r="42" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="B42" s="71"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="86"/>
+    </row>
+    <row r="43" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="61"/>
+    </row>
+    <row r="44" spans="2:26">
       <c r="B44" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="64"/>
-      <c r="V44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B45" s="16"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="97"/>
-    </row>
-    <row r="46" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B46" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="30"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="62"/>
+      <c r="V44" s="69">
+        <v>46399</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B45" s="21"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="30"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="30"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="62"/>
+    </row>
+    <row r="46" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="B46" s="22"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="36"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="93"/>
       <c r="K46" s="28"/>
       <c r="L46" s="30"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="64"/>
-    </row>
-    <row r="47" spans="2:24">
+      <c r="M46" s="28"/>
+      <c r="N46" s="30"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="62"/>
+    </row>
+    <row r="47" spans="2:26">
       <c r="B47" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="64"/>
-      <c r="V47" s="105">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="30"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="62"/>
+      <c r="V47" s="69">
+        <v>47127</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="5.0999999999999996" customHeight="1">
       <c r="B48" s="21"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="43"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="59"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="93"/>
       <c r="K48" s="28"/>
       <c r="L48" s="30"/>
-      <c r="M48" s="93"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="93"/>
-      <c r="R48" s="64"/>
-    </row>
-    <row r="49" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="M48" s="28"/>
+      <c r="N48" s="30"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="62"/>
+    </row>
+    <row r="49" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B49" s="22"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="44"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="59"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="93"/>
       <c r="K49" s="28"/>
       <c r="L49" s="30"/>
-      <c r="M49" s="93"/>
-      <c r="N49" s="93"/>
-      <c r="O49" s="93"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="93"/>
-      <c r="R49" s="64"/>
-    </row>
-    <row r="50" spans="2:22">
+      <c r="M49" s="28"/>
+      <c r="N49" s="30"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="62"/>
+    </row>
+    <row r="50" spans="2:24">
       <c r="B50" s="13" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="93"/>
-      <c r="Q50" s="93"/>
-      <c r="R50" s="64"/>
-      <c r="V50" s="105">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="F50" s="39"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="62"/>
+      <c r="V50" s="69">
+        <v>48135</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B51" s="21"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
       <c r="E51" s="43"/>
       <c r="F51" s="36"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="59"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
       <c r="I51" s="30"/>
-      <c r="J51" s="93"/>
       <c r="K51" s="28"/>
       <c r="L51" s="30"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
-      <c r="O51" s="93"/>
-      <c r="P51" s="93"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="64"/>
-    </row>
-    <row r="52" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="Q51" s="28"/>
+      <c r="R51" s="62"/>
+    </row>
+    <row r="52" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B52" s="22"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="44"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="59"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
       <c r="I52" s="30"/>
-      <c r="J52" s="93"/>
       <c r="K52" s="28"/>
       <c r="L52" s="30"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="64"/>
-    </row>
-    <row r="53" spans="2:22" ht="17.25" customHeight="1">
+      <c r="Q52" s="28"/>
+      <c r="R52" s="62"/>
+    </row>
+    <row r="53" spans="2:24">
       <c r="B53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="64"/>
-      <c r="V53" s="76">
-        <v>46308</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B54" s="21"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="64"/>
-      <c r="V54" s="104"/>
-    </row>
-    <row r="55" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="62"/>
+      <c r="V53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B54" s="16"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="85"/>
+    </row>
+    <row r="55" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B55" s="14"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="36"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="30"/>
-      <c r="J55" s="93"/>
       <c r="K55" s="28"/>
       <c r="L55" s="30"/>
-      <c r="M55" s="93"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="93"/>
-      <c r="R55" s="64"/>
-    </row>
-    <row r="56" spans="2:22">
-      <c r="B56" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="93"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="93"/>
-      <c r="R56" s="64"/>
-      <c r="V56" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="R55" s="62"/>
+    </row>
+    <row r="56" spans="2:24">
+      <c r="B56" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="30"/>
+      <c r="R56" s="62"/>
+      <c r="V56" s="92">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B57" s="21"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="43"/>
       <c r="F57" s="36"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="57"/>
       <c r="I57" s="30"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="93"/>
-      <c r="R57" s="64"/>
-    </row>
-    <row r="58" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="K57" s="28"/>
+      <c r="L57" s="30"/>
+      <c r="R57" s="62"/>
+    </row>
+    <row r="58" spans="2:24" ht="5.0999999999999996" customHeight="1">
       <c r="B58" s="22"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="44"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="57"/>
       <c r="I58" s="30"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="93"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="93"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="93"/>
-      <c r="R58" s="64"/>
-    </row>
-    <row r="59" spans="2:22" hidden="1" outlineLevel="1">
-      <c r="B59" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="46">
-        <v>2208</v>
-      </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="32"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="30"/>
+      <c r="R58" s="62"/>
+    </row>
+    <row r="59" spans="2:24">
+      <c r="B59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="30"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="93"/>
-      <c r="R59" s="64"/>
-    </row>
-    <row r="60" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="72"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="30"/>
+      <c r="R59" s="62"/>
+      <c r="V59" s="92">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="57"/>
       <c r="I60" s="30"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93"/>
-      <c r="R60" s="64"/>
-    </row>
-    <row r="61" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B61" s="73"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="75"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="30"/>
+      <c r="R60" s="62"/>
+    </row>
+    <row r="61" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B61" s="22"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="57"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="64"/>
-    </row>
-    <row r="62" spans="2:22">
-      <c r="B62" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="46">
-        <v>2302</v>
-      </c>
+      <c r="K61" s="28"/>
+      <c r="L61" s="30"/>
+      <c r="R61" s="62"/>
+    </row>
+    <row r="62" spans="2:24" ht="17.25" customHeight="1">
+      <c r="B62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="39"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="64"/>
-      <c r="V62" s="103">
-        <v>45545</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B63" s="15"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="30"/>
+      <c r="R62" s="62"/>
+      <c r="V62" s="69">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B63" s="21"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
       <c r="E63" s="43"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="28"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="93"/>
-      <c r="K63" s="93"/>
-      <c r="L63" s="93"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="93"/>
-      <c r="O63" s="93"/>
-      <c r="P63" s="93"/>
-      <c r="Q63" s="93"/>
-      <c r="R63" s="64"/>
-    </row>
-    <row r="64" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B64" s="15"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="30"/>
+      <c r="R63" s="62"/>
+      <c r="V63" s="91"/>
+    </row>
+    <row r="64" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="B64" s="22"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="44"/>
       <c r="F64" s="36"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="64"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="30"/>
+      <c r="R64" s="62"/>
     </row>
     <row r="65" spans="2:22">
-      <c r="B65" s="15"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="46">
+      <c r="B65" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="104"/>
+      <c r="R65" s="62"/>
+      <c r="V65" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B66" s="21"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="30"/>
+      <c r="R66" s="62"/>
+    </row>
+    <row r="67" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B67" s="22"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="30"/>
+      <c r="R67" s="62"/>
+    </row>
+    <row r="68" spans="2:22" hidden="1" outlineLevel="1">
+      <c r="B68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="46">
+        <v>2208</v>
+      </c>
+      <c r="F68" s="39"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="30"/>
+      <c r="R68" s="62"/>
+    </row>
+    <row r="69" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B69" s="63"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="30"/>
+      <c r="R69" s="62"/>
+    </row>
+    <row r="70" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="B70" s="66"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="68"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="30"/>
+      <c r="R70" s="62"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="B71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="46">
+        <v>2302</v>
+      </c>
+      <c r="F71" s="39"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="30"/>
+      <c r="R71" s="62"/>
+      <c r="V71" s="90">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B72" s="15"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="30"/>
+      <c r="R72" s="62"/>
+    </row>
+    <row r="73" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B73" s="15"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="30"/>
+      <c r="R73" s="62"/>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="B74" s="15"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="46">
         <v>2308</v>
       </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="93"/>
-      <c r="K65" s="93"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="64"/>
-      <c r="V65" s="103">
+      <c r="F74" s="39"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="28"/>
+      <c r="R74" s="62"/>
+      <c r="V74" s="90">
         <v>45727</v>
       </c>
     </row>
-    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B66" s="15"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="93"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="64"/>
-    </row>
-    <row r="67" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B67" s="15"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="93"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="93"/>
-      <c r="O67" s="93"/>
-      <c r="P67" s="93"/>
-      <c r="Q67" s="93"/>
-      <c r="R67" s="64"/>
-    </row>
-    <row r="68" spans="2:22">
-      <c r="B68" s="14"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="46">
+    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B75" s="15"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="38"/>
+      <c r="H75" s="28"/>
+      <c r="R75" s="62"/>
+    </row>
+    <row r="76" spans="2:22" ht="5.0999999999999996" customHeight="1">
+      <c r="B76" s="15"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="28"/>
+      <c r="R76" s="62"/>
+    </row>
+    <row r="77" spans="2:22">
+      <c r="B77" s="14"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="46">
         <v>2402</v>
       </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="93"/>
-      <c r="P68" s="93"/>
-      <c r="Q68" s="93"/>
-      <c r="R68" s="64"/>
-    </row>
-    <row r="69" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B69" s="16"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="97"/>
-    </row>
-    <row r="70" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
-    <row r="71" spans="2:22">
-      <c r="B71" s="2"/>
-      <c r="C71" s="4" t="s">
+      <c r="F77" s="112"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="114"/>
+      <c r="R77" s="62"/>
+    </row>
+    <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="B78" s="16"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="85"/>
+    </row>
+    <row r="79" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
+    <row r="80" spans="2:22">
+      <c r="B80" s="2"/>
+      <c r="C80" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="2:22">
-      <c r="B72" s="5"/>
-      <c r="C72" s="4" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="5"/>
+      <c r="C81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="2:22">
-      <c r="B73" s="49"/>
-      <c r="C73" s="4" t="s">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="49"/>
+      <c r="C82" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="2:22">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="2:22">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:E14"/>
+  <mergeCells count="4">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F654D6-9AE3-4784-A04B-6A4A1DD1789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60514ECD-00BF-4810-A701-A1240ABC2611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34590" yWindow="1245" windowWidth="25515" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -291,13 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2029年</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2035年？</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
@@ -309,11 +291,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windows 11 LTSC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Windows 10 LTSC 2021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 11 LTSC 2024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026年？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -321,10 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.E+00"/>
-  </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +365,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -412,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -956,10 +948,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -967,23 +959,36 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -992,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,70 +1265,50 @@
     <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1606,1563 +1591,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z84"/>
+  <dimension ref="B1:AB87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P38" sqref="F38:P38"/>
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="3" customWidth="1"/>
-    <col min="7" max="9" width="5.625" style="3" customWidth="1"/>
-    <col min="10" max="18" width="6.125" style="3" customWidth="1"/>
-    <col min="19" max="21" width="2.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5" style="4" customWidth="1"/>
-    <col min="23" max="23" width="2.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="3" customWidth="1"/>
+    <col min="9" max="11" width="5.625" style="3" customWidth="1"/>
+    <col min="12" max="20" width="6.125" style="3" customWidth="1"/>
+    <col min="21" max="23" width="2.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5" style="4" customWidth="1"/>
     <col min="25" max="25" width="2.625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="26" max="26" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:26">
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+    <row r="1" spans="2:28" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:28">
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="2:26" ht="16.5" thickBot="1">
-      <c r="F3" s="24" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:28" ht="16.5" thickBot="1">
+      <c r="H3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="T3" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="16.5" thickBot="1">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:28" ht="16.5" thickBot="1">
+      <c r="D4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="20">
+      <c r="H4" s="20">
         <v>2024</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="10">
         <v>2025</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>2026</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <v>2027</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="10">
         <v>2028</v>
       </c>
-      <c r="K4" s="10">
+      <c r="M4" s="10">
         <v>2029</v>
       </c>
-      <c r="L4" s="10">
+      <c r="N4" s="10">
         <v>2030</v>
       </c>
-      <c r="M4" s="10">
+      <c r="O4" s="10">
         <v>2031</v>
       </c>
-      <c r="N4" s="10">
+      <c r="P4" s="10">
         <v>2032</v>
       </c>
-      <c r="O4" s="10">
+      <c r="Q4" s="10">
         <v>2033</v>
       </c>
-      <c r="P4" s="10">
+      <c r="R4" s="10">
         <v>2034</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="S4" s="10">
         <v>2035</v>
       </c>
-      <c r="R4" s="11">
+      <c r="T4" s="11">
         <v>2036</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+    <row r="5" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D5" s="12"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="27"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="29"/>
       <c r="M5" s="27"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="61"/>
-    </row>
-    <row r="6" spans="2:26" hidden="1" outlineLevel="1">
-      <c r="B6" s="13" t="s">
+      <c r="O5" s="27"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="61"/>
+    </row>
+    <row r="6" spans="2:28" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="D6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="30"/>
       <c r="M6" s="28"/>
       <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="62"/>
-      <c r="V6" s="90">
+      <c r="O6" s="28"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="62"/>
+      <c r="X6" s="90">
         <v>45454</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+    <row r="7" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D7" s="14"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="30"/>
       <c r="M7" s="28"/>
       <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="62"/>
-    </row>
-    <row r="8" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="62"/>
+    </row>
+    <row r="8" spans="2:28" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="30"/>
       <c r="M8" s="28"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="62"/>
-    </row>
-    <row r="9" spans="2:26">
-      <c r="B9" s="13" t="s">
+      <c r="O8" s="28"/>
+      <c r="P8" s="30"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="62"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="62" t="s">
+      <c r="G9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="30"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="62"/>
-      <c r="V9" s="92">
+      <c r="P9" s="30"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="62"/>
+      <c r="X9" s="90">
         <v>45944</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="30"/>
+    <row r="10" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D10" s="14"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="28"/>
       <c r="L10" s="30"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="62"/>
-    </row>
-    <row r="11" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="62"/>
+    </row>
+    <row r="11" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D11" s="14"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="28"/>
       <c r="L11" s="30"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="62"/>
-    </row>
-    <row r="12" spans="2:26" ht="15.75" customHeight="1">
-      <c r="B12" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="P11" s="30"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="62"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.75" customHeight="1">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
       <c r="K12" s="83"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="62"/>
-      <c r="V12" s="69">
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="P12" s="30"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="62"/>
+      <c r="X12" s="69">
         <v>47127</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+    <row r="13" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D13" s="14"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="30"/>
       <c r="M13" s="28"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="62"/>
-    </row>
-    <row r="14" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="30"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D14" s="14"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="30"/>
       <c r="M14" s="28"/>
       <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="62"/>
-    </row>
-    <row r="15" spans="2:26">
-      <c r="B15" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="30"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="30"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="62"/>
+    </row>
+    <row r="15" spans="2:28" ht="15.75" customHeight="1">
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="101"/>
+      <c r="E15" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="M15" s="28"/>
       <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="30"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="62"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="111">
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="96">
         <v>46399</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+    <row r="16" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D16" s="21"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="30"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="62"/>
-    </row>
-    <row r="17" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="62"/>
+    </row>
+    <row r="17" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D17" s="22"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="K17" s="28"/>
       <c r="L17" s="30"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="62"/>
-    </row>
-    <row r="18" spans="2:26" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B18" s="93" t="s">
+      <c r="P17" s="30"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="62"/>
+    </row>
+    <row r="18" spans="2:28" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D18" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="30"/>
       <c r="M18" s="28"/>
       <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="62"/>
-    </row>
-    <row r="19" spans="2:26" hidden="1" outlineLevel="1">
-      <c r="B19" s="93"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="30"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="62"/>
+    </row>
+    <row r="19" spans="2:28" hidden="1" outlineLevel="1">
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
       <c r="N19" s="83"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="62"/>
-      <c r="V19" s="69">
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="62"/>
+      <c r="X19" s="69">
         <v>48226</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B20" s="93"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+    <row r="20" spans="2:28" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="32"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="30"/>
       <c r="M20" s="28"/>
       <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="62"/>
-    </row>
-    <row r="21" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="30"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="62"/>
+    </row>
+    <row r="21" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D21" s="21"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="30"/>
       <c r="M21" s="28"/>
       <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="62"/>
-    </row>
-    <row r="22" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="30"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="62"/>
+    </row>
+    <row r="22" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" collapsed="1">
+      <c r="D22" s="22"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="32"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="30"/>
       <c r="M22" s="28"/>
       <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="62"/>
-    </row>
-    <row r="23" spans="2:26">
-      <c r="B23" s="13" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="30"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="62"/>
+    </row>
+    <row r="23" spans="2:28" hidden="1">
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="62" t="s">
+      <c r="G23" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="28"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="30"/>
       <c r="M23" s="28"/>
       <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="30"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="90">
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="90">
         <v>45573</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+    <row r="24" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1">
+      <c r="D24" s="14"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="32"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="30"/>
       <c r="M24" s="28"/>
       <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="62"/>
-    </row>
-    <row r="25" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="30"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="62"/>
+    </row>
+    <row r="25" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D25" s="14"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="32"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="30"/>
       <c r="M25" s="28"/>
       <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="62"/>
-    </row>
-    <row r="26" spans="2:26">
-      <c r="B26" s="13"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="62" t="s">
+      <c r="O25" s="28"/>
+      <c r="P25" s="30"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="62"/>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="28"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="30"/>
       <c r="M26" s="28"/>
       <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="30"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="62"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="92">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="90">
         <v>45944</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+    <row r="27" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D27" s="14"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="32"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="28"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="30"/>
       <c r="M27" s="28"/>
       <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="62"/>
-    </row>
-    <row r="28" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="30"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="62"/>
+    </row>
+    <row r="28" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D28" s="14"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="28"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="30"/>
       <c r="M28" s="28"/>
       <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="62"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="B29" s="13"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="62" t="s">
+      <c r="O28" s="28"/>
+      <c r="P28" s="30"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="62"/>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="G29" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="28"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
       <c r="L29" s="30"/>
       <c r="M29" s="28"/>
       <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="30"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="62"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="69">
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="92">
         <v>46336</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B30" s="14"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+    <row r="30" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D30" s="14"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="32"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="28"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="30"/>
       <c r="M30" s="28"/>
       <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="62"/>
-    </row>
-    <row r="31" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B31" s="14"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="30"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="62"/>
+    </row>
+    <row r="31" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D31" s="14"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="28"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
       <c r="L31" s="30"/>
       <c r="M31" s="28"/>
       <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="62"/>
-    </row>
-    <row r="32" spans="2:26">
-      <c r="B32" s="13"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="62" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="30"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="62"/>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="G32" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="30"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
       <c r="M32" s="28"/>
       <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="30"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="62"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X32" s="1" t="s">
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="69">
+        <v>46672</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+    <row r="33" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D33" s="14"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="28"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="30"/>
       <c r="M33" s="28"/>
       <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="62"/>
-    </row>
-    <row r="34" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B34" s="14"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="30"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="62"/>
+    </row>
+    <row r="34" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1">
+      <c r="D34" s="14"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="32"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="28"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="30"/>
       <c r="M34" s="28"/>
       <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="62"/>
-    </row>
-    <row r="35" spans="2:26">
-      <c r="B35" s="13"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="100" t="s">
+      <c r="O34" s="28"/>
+      <c r="P34" s="30"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="62"/>
+    </row>
+    <row r="35" spans="2:28" hidden="1">
+      <c r="D35" s="13"/>
+      <c r="G35" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="50"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="62"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="4" t="s">
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="Z35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AB35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+    <row r="36" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1">
+      <c r="D36" s="14"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="28"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="30"/>
       <c r="M36" s="28"/>
       <c r="N36" s="30"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="62"/>
-    </row>
-    <row r="37" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="30"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="62"/>
+    </row>
+    <row r="37" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D37" s="14"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="32"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="28"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="30"/>
       <c r="M37" s="28"/>
       <c r="N37" s="30"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="62"/>
-    </row>
-    <row r="38" spans="2:26" ht="15.75" customHeight="1">
-      <c r="B38" s="93" t="s">
+      <c r="O37" s="28"/>
+      <c r="P37" s="30"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="62"/>
+    </row>
+    <row r="38" spans="2:28" ht="15.75" customHeight="1">
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="D38" s="101"/>
+      <c r="E38" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="30"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="62"/>
       <c r="U38" s="3"/>
-      <c r="X38" s="1" t="s">
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="69">
+        <v>47400</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="4.5" customHeight="1" thickBot="1">
-      <c r="B39" s="16"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="107"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="85"/>
-    </row>
-    <row r="40" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
+    <row r="39" spans="2:28" ht="4.5" customHeight="1" thickBot="1">
+      <c r="D39" s="16"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="85"/>
+    </row>
+    <row r="40" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
       <c r="L40" s="76"/>
       <c r="M40" s="77"/>
       <c r="N40" s="76"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="86"/>
-    </row>
-    <row r="41" spans="2:26" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="B41" s="71" t="s">
+      <c r="O40" s="77"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="86"/>
+    </row>
+    <row r="41" spans="2:28" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="D41" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="89"/>
       <c r="M41" s="79"/>
       <c r="N41" s="79"/>
       <c r="O41" s="79"/>
       <c r="P41" s="79"/>
       <c r="Q41" s="79"/>
-      <c r="R41" s="87"/>
-    </row>
-    <row r="42" spans="2:26" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="B42" s="71"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="87"/>
+    </row>
+    <row r="42" spans="2:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="74"/>
       <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
       <c r="L42" s="76"/>
       <c r="M42" s="77"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="77"/>
       <c r="P42" s="78"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="86"/>
-    </row>
-    <row r="43" spans="2:26" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="86"/>
+    </row>
+    <row r="43" spans="2:28" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D43" s="80"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="27"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="29"/>
-      <c r="M43" s="23"/>
+      <c r="M43" s="27"/>
       <c r="N43" s="29"/>
       <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="61"/>
-    </row>
-    <row r="44" spans="2:26">
-      <c r="B44" s="13" t="s">
+      <c r="P43" s="29"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="61"/>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="B44" s="3">
+        <v>9</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="83"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="30"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
       <c r="M44" s="28"/>
       <c r="N44" s="30"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="62"/>
-      <c r="V44" s="69">
+      <c r="O44" s="28"/>
+      <c r="P44" s="30"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="62"/>
+      <c r="X44" s="69">
         <v>46399</v>
       </c>
     </row>
-    <row r="45" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="30"/>
-      <c r="K45" s="28"/>
+    <row r="45" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D45" s="21"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
       <c r="L45" s="30"/>
       <c r="M45" s="28"/>
       <c r="N45" s="30"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="62"/>
-    </row>
-    <row r="46" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="30"/>
-      <c r="K46" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="30"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="62"/>
+    </row>
+    <row r="46" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D46" s="22"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="30"/>
       <c r="M46" s="28"/>
       <c r="N46" s="30"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="62"/>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="B47" s="13" t="s">
+      <c r="O46" s="28"/>
+      <c r="P46" s="30"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="62"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="83"/>
       <c r="J47" s="83"/>
       <c r="K47" s="83"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="30"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="62"/>
-      <c r="V47" s="69">
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="30"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="62"/>
+      <c r="X47" s="69">
         <v>47127</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="Z47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:26" ht="5.0999999999999996" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="30"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="30"/>
+    <row r="48" spans="2:28" ht="5.0999999999999996" customHeight="1">
+      <c r="D48" s="21"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="30"/>
       <c r="M48" s="28"/>
       <c r="N48" s="30"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="62"/>
-    </row>
-    <row r="49" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="30"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="30"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="30"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="62"/>
+    </row>
+    <row r="49" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D49" s="22"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="30"/>
       <c r="M49" s="28"/>
       <c r="N49" s="30"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="62"/>
-    </row>
-    <row r="50" spans="2:24">
-      <c r="B50" s="13" t="s">
+      <c r="O49" s="28"/>
+      <c r="P49" s="30"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="62"/>
+    </row>
+    <row r="50" spans="2:26">
+      <c r="B50" s="3">
+        <v>11</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="83"/>
       <c r="L50" s="83"/>
       <c r="M50" s="83"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="62"/>
-      <c r="V50" s="69">
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="62"/>
+      <c r="X50" s="69">
         <v>48135</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="30"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="30"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="62"/>
-    </row>
-    <row r="52" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="30"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="30"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="62"/>
-    </row>
-    <row r="53" spans="2:24">
-      <c r="B53" s="13" t="s">
+    <row r="51" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D51" s="21"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="30"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="30"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="62"/>
+    </row>
+    <row r="52" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D52" s="22"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="30"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="30"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="62"/>
+    </row>
+    <row r="53" spans="2:26">
+      <c r="B53" s="3">
+        <v>12</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="113"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="113"/>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="62"/>
-      <c r="V53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X53" s="1" t="s">
+      <c r="G53" s="41"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="97"/>
+      <c r="X53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:24" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B54" s="16"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
+    <row r="54" spans="2:26" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="D54" s="16"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="34"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
-      <c r="R54" s="85"/>
-    </row>
-    <row r="55" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B55" s="14"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="30"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="30"/>
-      <c r="R55" s="62"/>
-    </row>
-    <row r="56" spans="2:24">
-      <c r="B56" s="13" t="s">
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="97"/>
+    </row>
+    <row r="55" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D55" s="14"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="30"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="30"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="97"/>
+    </row>
+    <row r="56" spans="2:26">
+      <c r="B56" s="3">
+        <v>13</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="30"/>
-      <c r="R56" s="62"/>
-      <c r="V56" s="92">
+      <c r="G56" s="3"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="30"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="30"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="97"/>
+      <c r="X56" s="90">
         <v>45944</v>
       </c>
     </row>
-    <row r="57" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B57" s="21"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="30"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="30"/>
-      <c r="R57" s="62"/>
-    </row>
-    <row r="58" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="30"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="30"/>
-      <c r="R58" s="62"/>
-    </row>
-    <row r="59" spans="2:24">
-      <c r="B59" s="13" t="s">
+    <row r="57" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D57" s="21"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="30"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="30"/>
+      <c r="T57" s="62"/>
+      <c r="X57" s="91"/>
+    </row>
+    <row r="58" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D58" s="22"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="30"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="30"/>
+      <c r="T58" s="62"/>
+    </row>
+    <row r="59" spans="2:26">
+      <c r="B59" s="3">
+        <v>14</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="30"/>
-      <c r="R59" s="62"/>
-      <c r="V59" s="92">
+      <c r="G59" s="3"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="30"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="30"/>
+      <c r="T59" s="62"/>
+      <c r="X59" s="90">
         <v>45944</v>
       </c>
     </row>
-    <row r="60" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B60" s="21"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="30"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="30"/>
-      <c r="R60" s="62"/>
-    </row>
-    <row r="61" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="30"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="30"/>
-      <c r="R61" s="62"/>
-    </row>
-    <row r="62" spans="2:24" ht="17.25" customHeight="1">
-      <c r="B62" s="13" t="s">
+    <row r="60" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D60" s="21"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="30"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="30"/>
+      <c r="T60" s="62"/>
+    </row>
+    <row r="61" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D61" s="22"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="30"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="30"/>
+      <c r="T61" s="62"/>
+    </row>
+    <row r="62" spans="2:26" ht="17.25" customHeight="1">
+      <c r="B62" s="3">
+        <v>15</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="30"/>
-      <c r="R62" s="62"/>
-      <c r="V62" s="69">
+      <c r="G62" s="3"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="30"/>
+      <c r="T62" s="62"/>
+      <c r="X62" s="92">
         <v>46308</v>
       </c>
     </row>
-    <row r="63" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B63" s="21"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="30"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="30"/>
-      <c r="R63" s="62"/>
-      <c r="V63" s="91"/>
-    </row>
-    <row r="64" spans="2:24" ht="5.0999999999999996" customHeight="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="30"/>
-      <c r="R64" s="62"/>
-    </row>
-    <row r="65" spans="2:22">
-      <c r="B65" s="15" t="s">
+    <row r="63" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D63" s="21"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="30"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="30"/>
+      <c r="T63" s="62"/>
+      <c r="X63" s="91"/>
+    </row>
+    <row r="64" spans="2:26" ht="5.0999999999999996" customHeight="1">
+      <c r="D64" s="22"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="30"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="30"/>
+      <c r="T64" s="62"/>
+    </row>
+    <row r="65" spans="2:24">
+      <c r="B65" s="3">
+        <v>16</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="104"/>
-      <c r="R65" s="62"/>
-      <c r="V65" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B66" s="21"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="30"/>
-      <c r="R66" s="62"/>
-    </row>
-    <row r="67" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="30"/>
-      <c r="R67" s="62"/>
-    </row>
-    <row r="68" spans="2:22" hidden="1" outlineLevel="1">
-      <c r="B68" s="15" t="s">
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="T65" s="62"/>
+      <c r="X65" s="69">
+        <v>47410</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D66" s="21"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="30"/>
+      <c r="T66" s="62"/>
+    </row>
+    <row r="67" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D67" s="22"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="30"/>
+      <c r="T67" s="62"/>
+    </row>
+    <row r="68" spans="2:24" hidden="1" outlineLevel="1">
+      <c r="D68" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="46">
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="46">
         <v>2208</v>
       </c>
-      <c r="F68" s="39"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="30"/>
-      <c r="R68" s="62"/>
-    </row>
-    <row r="69" spans="2:22" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B69" s="63"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="30"/>
-      <c r="R69" s="62"/>
-    </row>
-    <row r="70" spans="2:22" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="30"/>
-      <c r="R70" s="62"/>
-    </row>
-    <row r="71" spans="2:22">
-      <c r="B71" s="15" t="s">
+      <c r="H68" s="39"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="30"/>
+      <c r="T68" s="62"/>
+    </row>
+    <row r="69" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="30"/>
+      <c r="T69" s="62"/>
+    </row>
+    <row r="70" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1" collapsed="1">
+      <c r="D70" s="66"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="68"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="30"/>
+      <c r="T70" s="62"/>
+    </row>
+    <row r="71" spans="2:24" hidden="1">
+      <c r="B71" s="3">
+        <v>17</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="46">
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="46">
         <v>2302</v>
       </c>
-      <c r="F71" s="39"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="30"/>
-      <c r="R71" s="62"/>
-      <c r="V71" s="90">
+      <c r="H71" s="39"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="30"/>
+      <c r="T71" s="62"/>
+      <c r="X71" s="90">
         <v>45545</v>
       </c>
     </row>
-    <row r="72" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B72" s="15"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="30"/>
-      <c r="R72" s="62"/>
-    </row>
-    <row r="73" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B73" s="15"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="30"/>
-      <c r="R73" s="62"/>
-    </row>
-    <row r="74" spans="2:22">
-      <c r="B74" s="15"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="46">
+    <row r="72" spans="2:24" ht="5.0999999999999996" hidden="1" customHeight="1">
+      <c r="D72" s="15"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="30"/>
+      <c r="T72" s="62"/>
+    </row>
+    <row r="73" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D73" s="15"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="30"/>
+      <c r="T73" s="62"/>
+    </row>
+    <row r="74" spans="2:24">
+      <c r="B74" s="3">
+        <v>18</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="46">
         <v>2308</v>
       </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="28"/>
-      <c r="R74" s="62"/>
-      <c r="V74" s="90">
+      <c r="H74" s="39"/>
+      <c r="I74" s="2"/>
+      <c r="T74" s="62"/>
+      <c r="X74" s="90">
         <v>45727</v>
       </c>
     </row>
-    <row r="75" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B75" s="15"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="38"/>
-      <c r="H75" s="28"/>
-      <c r="R75" s="62"/>
-    </row>
-    <row r="76" spans="2:22" ht="5.0999999999999996" customHeight="1">
-      <c r="B76" s="15"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="28"/>
-      <c r="R76" s="62"/>
-    </row>
-    <row r="77" spans="2:22">
-      <c r="B77" s="14"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="46">
+    <row r="75" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D75" s="15"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="30"/>
+      <c r="T75" s="62"/>
+    </row>
+    <row r="76" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D76" s="15"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="30"/>
+      <c r="T76" s="62"/>
+    </row>
+    <row r="77" spans="2:24">
+      <c r="B77" s="3">
+        <v>19</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="46">
         <v>2402</v>
       </c>
-      <c r="F77" s="112"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="114"/>
-      <c r="R77" s="62"/>
-    </row>
-    <row r="78" spans="2:22" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="B78" s="16"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="85"/>
-    </row>
-    <row r="79" spans="2:22" ht="5.0999999999999996" customHeight="1"/>
-    <row r="80" spans="2:22">
-      <c r="B80" s="2"/>
-      <c r="C80" s="4" t="s">
+      <c r="H77" s="39"/>
+      <c r="I77" s="2"/>
+      <c r="T77" s="62"/>
+      <c r="X77" s="90">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D78" s="15"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="30"/>
+      <c r="T78" s="62"/>
+    </row>
+    <row r="79" spans="2:24" ht="5.0999999999999996" customHeight="1">
+      <c r="D79" s="15"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="30"/>
+      <c r="T79" s="62"/>
+    </row>
+    <row r="80" spans="2:24">
+      <c r="B80" s="3">
+        <v>19</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="46">
+        <v>2408</v>
+      </c>
+      <c r="H80" s="107"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="100"/>
+      <c r="T80" s="62"/>
+      <c r="X80" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="4:20" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="D81" s="16"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="85"/>
+    </row>
+    <row r="82" spans="4:20" ht="5.0999999999999996" customHeight="1"/>
+    <row r="83" spans="4:20">
+      <c r="D83" s="2"/>
+      <c r="E83" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="2:15">
-      <c r="B81" s="5"/>
-      <c r="C81" s="4" t="s">
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="4:20">
+      <c r="D84" s="5"/>
+      <c r="E84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="2:15">
-      <c r="B82" s="49"/>
-      <c r="C82" s="4" t="s">
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="4:20">
+      <c r="D85" s="49"/>
+      <c r="E85" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="2:15">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:15">
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="4:20">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="4:20">
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="D18:G20"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
+++ b/20230710_Windows と Office のサポート状況について/127_OfficeSupport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230710_Windows と Office のサポート状況について\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF98F09-DC16-40D7-B4AD-A8D593445AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87139682-1346-4619-B43A-65A5B84E5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Windows 10</t>
     <phoneticPr fontId="1"/>
@@ -286,11 +286,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2026 年 3 月 10 日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>25H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年2月11日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026年3月10日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R17年</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -298,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +353,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
@@ -366,15 +379,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +411,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -734,11 +746,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -843,29 +929,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,15 +956,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -912,21 +983,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,13 +999,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,22 +1018,74 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,16 +1097,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1278,13 +1395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AN96"/>
+  <dimension ref="B1:AP102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI57" sqref="AI57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="3" bestFit="1" customWidth="1"/>
@@ -1296,24 +1413,24 @@
     <col min="8" max="8" width="4.125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="3.125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="4.125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="29" width="3.125" style="3" customWidth="1"/>
-    <col min="30" max="33" width="2.625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.25" style="1" customWidth="1"/>
-    <col min="36" max="36" width="23.5" style="4" customWidth="1"/>
+    <col min="11" max="31" width="3.125" style="3" customWidth="1"/>
+    <col min="32" max="35" width="2.625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="2.625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="2.625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="1"/>
+    <col min="40" max="40" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.625" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="16.5" thickBot="1"/>
-    <row r="2" spans="2:40">
-      <c r="G2" s="74"/>
+    <row r="1" spans="2:42" ht="16.5" thickBot="1"/>
+    <row r="2" spans="2:42">
+      <c r="G2" s="65"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1333,115 +1450,125 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="8"/>
-    </row>
-    <row r="3" spans="2:40" ht="19.5" customHeight="1" thickBot="1">
-      <c r="G3" s="74"/>
-      <c r="H3" s="82" t="s">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3" spans="2:42" ht="19.5" customHeight="1" thickBot="1">
+      <c r="G3" s="65"/>
+      <c r="H3" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81" t="s">
+      <c r="I3" s="91"/>
+      <c r="J3" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81" t="s">
+      <c r="K3" s="91"/>
+      <c r="L3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81" t="s">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81" t="s">
+      <c r="W3" s="91"/>
+      <c r="X3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81" t="s">
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81" t="s">
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="89"/>
-    </row>
-    <row r="4" spans="2:40" ht="19.5" customHeight="1" thickBot="1">
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="98"/>
+    </row>
+    <row r="4" spans="2:42" ht="19.5" customHeight="1" thickBot="1">
       <c r="D4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="101">
         <v>2024</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92">
         <v>2025</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92">
         <v>2026</v>
       </c>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80">
+      <c r="M4" s="92"/>
+      <c r="N4" s="92">
         <v>2027</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80">
+      <c r="O4" s="92"/>
+      <c r="P4" s="92">
         <v>2028</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92">
         <v>2029</v>
       </c>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80">
+      <c r="S4" s="92"/>
+      <c r="T4" s="92">
         <v>2030</v>
       </c>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80">
+      <c r="U4" s="92"/>
+      <c r="V4" s="92">
         <v>2031</v>
       </c>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80">
+      <c r="W4" s="92"/>
+      <c r="X4" s="92">
         <v>2032</v>
       </c>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80">
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92">
         <v>2033</v>
       </c>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80">
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92">
         <v>2034</v>
       </c>
-      <c r="AC4" s="90"/>
-    </row>
-    <row r="5" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92">
+        <v>2035</v>
+      </c>
+      <c r="AE4" s="99"/>
+    </row>
+    <row r="5" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D5" s="9"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="60"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="19"/>
       <c r="J5" s="22"/>
       <c r="K5" s="20"/>
@@ -1461,10 +1588,12 @@
       <c r="Y5" s="19"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="39"/>
-    </row>
-    <row r="6" spans="2:40" hidden="1" outlineLevel="1">
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="38"/>
+    </row>
+    <row r="6" spans="2:42" hidden="1" outlineLevel="1">
       <c r="D6" s="10" t="s">
         <v>0</v>
       </c>
@@ -1483,15 +1612,16 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="21"/>
       <c r="AA6" s="21"/>
-      <c r="AC6" s="40"/>
-      <c r="AJ6" s="52">
+      <c r="AC6" s="21"/>
+      <c r="AE6" s="39"/>
+      <c r="AL6" s="47">
         <v>45454</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="7" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="D7" s="11"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -1509,13 +1639,14 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="21"/>
       <c r="AA7" s="21"/>
-      <c r="AC7" s="40"/>
-    </row>
-    <row r="8" spans="2:40" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="55"/>
+      <c r="AC7" s="21"/>
+      <c r="AE7" s="39"/>
+    </row>
+    <row r="8" spans="2:42" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="25"/>
       <c r="I8" s="21"/>
       <c r="K8" s="21"/>
@@ -1529,46 +1660,48 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="21"/>
       <c r="AA8" s="21"/>
-      <c r="AC8" s="40"/>
-    </row>
-    <row r="9" spans="2:40">
+      <c r="AC8" s="21"/>
+      <c r="AE8" s="39"/>
+    </row>
+    <row r="9" spans="2:42">
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>9</v>
+      <c r="G9" s="63" t="s">
+        <v>55</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="38"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
       <c r="S9" s="21"/>
       <c r="U9" s="21"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="21"/>
       <c r="AA9" s="21"/>
-      <c r="AC9" s="40"/>
-      <c r="AJ9" s="52">
-        <v>45944</v>
-      </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AC9" s="21"/>
+      <c r="AE9" s="39"/>
+      <c r="AL9" s="53">
+        <v>47036</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="10" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D10" s="11"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="25"/>
       <c r="I10" s="21"/>
       <c r="K10" s="21"/>
@@ -1581,13 +1714,14 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="21"/>
       <c r="AA10" s="21"/>
-      <c r="AC10" s="40"/>
-    </row>
-    <row r="11" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC10" s="21"/>
+      <c r="AE10" s="39"/>
+    </row>
+    <row r="11" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D11" s="11"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="25"/>
       <c r="I11" s="21"/>
       <c r="K11" s="21"/>
@@ -1600,44 +1734,46 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="21"/>
       <c r="AA11" s="21"/>
-      <c r="AC11" s="40"/>
-    </row>
-    <row r="12" spans="2:40" ht="15.75" customHeight="1">
+      <c r="AC11" s="21"/>
+      <c r="AE11" s="39"/>
+    </row>
+    <row r="12" spans="2:42" ht="15.75" customHeight="1">
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
       <c r="S12" s="21"/>
       <c r="U12" s="21"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="21"/>
       <c r="AA12" s="21"/>
-      <c r="AC12" s="40"/>
-      <c r="AJ12" s="47">
+      <c r="AC12" s="21"/>
+      <c r="AE12" s="39"/>
+      <c r="AL12" s="42">
         <v>47127</v>
       </c>
     </row>
-    <row r="13" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="13" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D13" s="11"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="25"/>
       <c r="J13" s="23"/>
       <c r="K13" s="21"/>
@@ -1651,13 +1787,14 @@
       <c r="X13" s="23"/>
       <c r="Y13" s="21"/>
       <c r="AA13" s="21"/>
-      <c r="AC13" s="40"/>
-    </row>
-    <row r="14" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC13" s="21"/>
+      <c r="AE13" s="39"/>
+    </row>
+    <row r="14" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D14" s="11"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="25"/>
       <c r="J14" s="23"/>
       <c r="K14" s="21"/>
@@ -1671,18 +1808,19 @@
       <c r="X14" s="23"/>
       <c r="Y14" s="21"/>
       <c r="AA14" s="21"/>
-      <c r="AC14" s="40"/>
-    </row>
-    <row r="15" spans="2:40" ht="15.75" customHeight="1">
+      <c r="AC14" s="21"/>
+      <c r="AE14" s="39"/>
+    </row>
+    <row r="15" spans="2:42" ht="15.75" customHeight="1">
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
       <c r="H15" s="26"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1697,28 +1835,29 @@
       <c r="X15" s="23"/>
       <c r="Y15" s="21"/>
       <c r="AA15" s="21"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="AC15" s="21"/>
+      <c r="AE15" s="39"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="58">
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="49">
         <v>46399</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AN15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="16" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D16" s="17"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="25"/>
       <c r="I16" s="21"/>
       <c r="K16" s="21"/>
@@ -1732,13 +1871,14 @@
       <c r="X16" s="23"/>
       <c r="Y16" s="21"/>
       <c r="AA16" s="21"/>
-      <c r="AC16" s="40"/>
-    </row>
-    <row r="17" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="AC16" s="21"/>
+      <c r="AE16" s="39"/>
+    </row>
+    <row r="17" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D17" s="18"/>
       <c r="E17" s="36"/>
       <c r="F17" s="36"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="25"/>
       <c r="I17" s="21"/>
       <c r="K17" s="21"/>
@@ -1751,15 +1891,16 @@
       <c r="X17" s="23"/>
       <c r="Y17" s="21"/>
       <c r="AA17" s="21"/>
-      <c r="AC17" s="40"/>
-    </row>
-    <row r="18" spans="2:40" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D18" s="84" t="s">
+      <c r="AC17" s="21"/>
+      <c r="AE17" s="39"/>
+    </row>
+    <row r="18" spans="2:42" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="25"/>
       <c r="I18" s="21"/>
       <c r="K18" s="21"/>
@@ -1773,13 +1914,14 @@
       <c r="X18" s="23"/>
       <c r="Y18" s="21"/>
       <c r="AA18" s="21"/>
-      <c r="AC18" s="40"/>
-    </row>
-    <row r="19" spans="2:40" hidden="1" outlineLevel="1">
-      <c r="D19" s="84"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="AC18" s="21"/>
+      <c r="AE18" s="39"/>
+    </row>
+    <row r="19" spans="2:42" hidden="1" outlineLevel="1">
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="26"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1788,30 +1930,31 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
       <c r="Y19" s="21"/>
       <c r="AA19" s="21"/>
-      <c r="AC19" s="40"/>
-      <c r="AJ19" s="47">
+      <c r="AC19" s="21"/>
+      <c r="AE19" s="39"/>
+      <c r="AL19" s="42">
         <v>48226</v>
       </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AN19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:40" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+    <row r="20" spans="2:42" ht="8.1" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
       <c r="H20" s="25"/>
       <c r="I20" s="21"/>
       <c r="K20" s="21"/>
@@ -1825,13 +1968,14 @@
       <c r="X20" s="23"/>
       <c r="Y20" s="21"/>
       <c r="AA20" s="21"/>
-      <c r="AC20" s="40"/>
-    </row>
-    <row r="21" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="AC20" s="21"/>
+      <c r="AE20" s="39"/>
+    </row>
+    <row r="21" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D21" s="17"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="25"/>
       <c r="I21" s="21"/>
       <c r="K21" s="21"/>
@@ -1845,13 +1989,14 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="21"/>
       <c r="AA21" s="21"/>
-      <c r="AC21" s="40"/>
-    </row>
-    <row r="22" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="AC21" s="21"/>
+      <c r="AE21" s="39"/>
+    </row>
+    <row r="22" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D22" s="18"/>
       <c r="E22" s="36"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="46"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="25"/>
       <c r="I22" s="21"/>
       <c r="K22" s="21"/>
@@ -1865,16 +2010,17 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="21"/>
       <c r="AA22" s="21"/>
-      <c r="AC22" s="40"/>
-    </row>
-    <row r="23" spans="2:40" hidden="1" outlineLevel="1">
+      <c r="AC22" s="21"/>
+      <c r="AE22" s="39"/>
+    </row>
+    <row r="23" spans="2:42" hidden="1" outlineLevel="1">
       <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="26"/>
@@ -1890,28 +2036,29 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="21"/>
       <c r="AA23" s="21"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="AC23" s="21"/>
+      <c r="AE23" s="39"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="52">
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="47">
         <v>45573</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AN23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AN23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="24" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D24" s="11"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="43"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="25"/>
       <c r="K24" s="21"/>
       <c r="L24" s="23"/>
@@ -1924,13 +2071,14 @@
       <c r="X24" s="23"/>
       <c r="Y24" s="21"/>
       <c r="AA24" s="21"/>
-      <c r="AC24" s="40"/>
-    </row>
-    <row r="25" spans="2:40" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="AC24" s="21"/>
+      <c r="AE24" s="39"/>
+    </row>
+    <row r="25" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D25" s="11"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="46"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="25"/>
       <c r="J25" s="23"/>
       <c r="K25" s="21"/>
@@ -1944,16 +2092,17 @@
       <c r="X25" s="23"/>
       <c r="Y25" s="21"/>
       <c r="AA25" s="21"/>
-      <c r="AC25" s="40"/>
-    </row>
-    <row r="26" spans="2:40">
+      <c r="AC25" s="21"/>
+      <c r="AE25" s="39"/>
+    </row>
+    <row r="26" spans="2:42" hidden="1" outlineLevel="1">
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="26"/>
@@ -1969,28 +2118,29 @@
       <c r="X26" s="23"/>
       <c r="Y26" s="21"/>
       <c r="AA26" s="21"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
+      <c r="AC26" s="21"/>
+      <c r="AE26" s="39"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-      <c r="AJ26" s="52">
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="47">
         <v>45944</v>
       </c>
-      <c r="AL26" s="1" t="s">
+      <c r="AN26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN26" s="1" t="s">
+      <c r="AP26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="27" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D27" s="11"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="43"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="25"/>
       <c r="K27" s="21"/>
       <c r="L27" s="23"/>
@@ -2003,13 +2153,14 @@
       <c r="X27" s="23"/>
       <c r="Y27" s="21"/>
       <c r="AA27" s="21"/>
-      <c r="AC27" s="40"/>
-    </row>
-    <row r="28" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC27" s="21"/>
+      <c r="AE27" s="39"/>
+    </row>
+    <row r="28" spans="2:42" ht="5.0999999999999996" customHeight="1" collapsed="1">
       <c r="D28" s="11"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="46"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="25"/>
       <c r="K28" s="21"/>
       <c r="L28" s="23"/>
@@ -2022,14 +2173,17 @@
       <c r="X28" s="23"/>
       <c r="Y28" s="21"/>
       <c r="AA28" s="21"/>
-      <c r="AC28" s="40"/>
-    </row>
-    <row r="29" spans="2:40">
+      <c r="AC28" s="21"/>
+      <c r="AE28" s="39"/>
+    </row>
+    <row r="29" spans="2:42">
       <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="G29" s="40" t="s">
+      <c r="D29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="26"/>
@@ -2045,28 +2199,29 @@
       <c r="X29" s="23"/>
       <c r="Y29" s="21"/>
       <c r="AA29" s="21"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
+      <c r="AC29" s="21"/>
+      <c r="AE29" s="39"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="54">
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="47">
         <v>46336</v>
       </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AN29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN29" s="1" t="s">
+      <c r="AP29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="30" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D30" s="11"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-      <c r="G30" s="43"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="25"/>
       <c r="K30" s="21"/>
       <c r="M30" s="21"/>
@@ -2078,13 +2233,14 @@
       <c r="X30" s="23"/>
       <c r="Y30" s="21"/>
       <c r="AA30" s="21"/>
-      <c r="AC30" s="40"/>
-    </row>
-    <row r="31" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC30" s="21"/>
+      <c r="AE30" s="39"/>
+    </row>
+    <row r="31" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D31" s="11"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
-      <c r="G31" s="46"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="25"/>
       <c r="I31" s="21"/>
       <c r="K31" s="21"/>
@@ -2096,14 +2252,15 @@
       <c r="X31" s="23"/>
       <c r="Y31" s="21"/>
       <c r="AA31" s="21"/>
-      <c r="AC31" s="40"/>
-    </row>
-    <row r="32" spans="2:40">
+      <c r="AC31" s="21"/>
+      <c r="AE31" s="39"/>
+    </row>
+    <row r="32" spans="2:42">
       <c r="B32" s="3">
         <v>7</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="39" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="25"/>
@@ -2120,28 +2277,29 @@
       <c r="X32" s="23"/>
       <c r="Y32" s="21"/>
       <c r="AA32" s="21"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
+      <c r="AC32" s="21"/>
+      <c r="AE32" s="39"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
-      <c r="AJ32" s="47">
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="49">
         <v>46672</v>
       </c>
-      <c r="AL32" s="1" t="s">
+      <c r="AN32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN32" s="1" t="s">
+      <c r="AP32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:40" ht="5.0999999999999996" customHeight="1">
+    <row r="33" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D33" s="11"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
-      <c r="G33" s="43"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="25"/>
       <c r="I33" s="21"/>
       <c r="K33" s="21"/>
@@ -2153,13 +2311,14 @@
       <c r="X33" s="23"/>
       <c r="Y33" s="21"/>
       <c r="AA33" s="21"/>
-      <c r="AC33" s="40"/>
-    </row>
-    <row r="34" spans="2:40" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="AC33" s="21"/>
+      <c r="AE33" s="39"/>
+    </row>
+    <row r="34" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D34" s="11"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="46"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="25"/>
       <c r="I34" s="21"/>
       <c r="K34" s="21"/>
@@ -2171,212 +2330,212 @@
       <c r="X34" s="23"/>
       <c r="Y34" s="21"/>
       <c r="AA34" s="21"/>
-      <c r="AC34" s="40"/>
-    </row>
-    <row r="35" spans="2:40" outlineLevel="1">
+      <c r="AC34" s="21"/>
+      <c r="AE34" s="39"/>
+    </row>
+    <row r="35" spans="2:42">
+      <c r="B35" s="3">
+        <v>7</v>
+      </c>
       <c r="D35" s="10"/>
-      <c r="G35" s="56" t="s">
-        <v>53</v>
+      <c r="G35" s="63" t="s">
+        <v>52</v>
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="21"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
       <c r="T35" s="23"/>
       <c r="U35" s="21"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="21"/>
       <c r="AA35" s="21"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
+      <c r="AC35" s="21"/>
+      <c r="AE35" s="39"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL35" s="1" t="s">
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="49">
+        <v>46672</v>
+      </c>
+      <c r="AN35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN35" s="1" t="s">
+      <c r="AP35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:40" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+    <row r="36" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D36" s="11"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="43"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="25"/>
       <c r="I36" s="21"/>
       <c r="K36" s="21"/>
       <c r="M36" s="21"/>
       <c r="O36" s="21"/>
       <c r="Q36" s="21"/>
-      <c r="S36" s="21"/>
+      <c r="T36" s="23"/>
       <c r="U36" s="21"/>
-      <c r="W36" s="21"/>
+      <c r="X36" s="23"/>
       <c r="Y36" s="21"/>
       <c r="AA36" s="21"/>
-      <c r="AC36" s="40"/>
-    </row>
-    <row r="37" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC36" s="21"/>
+      <c r="AE36" s="39"/>
+    </row>
+    <row r="37" spans="2:42" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
       <c r="D37" s="11"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="46"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="25"/>
       <c r="I37" s="21"/>
       <c r="K37" s="21"/>
       <c r="M37" s="21"/>
       <c r="O37" s="21"/>
       <c r="Q37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="T37" s="23"/>
       <c r="U37" s="21"/>
-      <c r="W37" s="21"/>
+      <c r="X37" s="23"/>
       <c r="Y37" s="21"/>
       <c r="AA37" s="21"/>
-      <c r="AC37" s="40"/>
-    </row>
-    <row r="38" spans="2:40" ht="15.75" customHeight="1">
-      <c r="B38" s="3">
-        <v>8</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
+      <c r="AC37" s="21"/>
+      <c r="AE37" s="39"/>
+    </row>
+    <row r="38" spans="2:42" outlineLevel="1">
+      <c r="D38" s="10"/>
+      <c r="G38" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="23"/>
       <c r="U38" s="21"/>
-      <c r="W38" s="21"/>
+      <c r="X38" s="23"/>
       <c r="Y38" s="21"/>
       <c r="AA38" s="21"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
+      <c r="AC38" s="21"/>
+      <c r="AE38" s="39"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="47">
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:42" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
+      <c r="D39" s="11"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AE39" s="39"/>
+    </row>
+    <row r="40" spans="2:42" ht="5.0999999999999996" customHeight="1">
+      <c r="D40" s="11"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AE40" s="39"/>
+    </row>
+    <row r="41" spans="2:42" ht="15.75" customHeight="1">
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="U41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="42">
         <v>47400</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="AN41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN38" s="1" t="s">
+      <c r="AP41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:40" ht="4.5" customHeight="1" thickBot="1">
-      <c r="D39" s="13"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="51"/>
-    </row>
-    <row r="40" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="39"/>
-    </row>
-    <row r="41" spans="2:40" hidden="1" outlineLevel="1">
-      <c r="D41" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="21"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="40"/>
-    </row>
-    <row r="42" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="42" spans="2:42" ht="4.5" customHeight="1" thickBot="1">
       <c r="D42" s="13"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
-      <c r="G42" s="30"/>
+      <c r="G42" s="52"/>
       <c r="H42" s="32"/>
       <c r="I42" s="24"/>
       <c r="J42" s="14"/>
@@ -2398,14 +2557,16 @@
       <c r="Z42" s="14"/>
       <c r="AA42" s="24"/>
       <c r="AB42" s="14"/>
-      <c r="AC42" s="51"/>
-    </row>
-    <row r="43" spans="2:40" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="60"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="46"/>
+    </row>
+    <row r="43" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="20"/>
       <c r="J43" s="19"/>
       <c r="K43" s="20"/>
@@ -2426,108 +2587,133 @@
       <c r="Z43" s="19"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="19"/>
-      <c r="AC43" s="39"/>
-    </row>
-    <row r="44" spans="2:40">
-      <c r="B44" s="3">
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="38"/>
+    </row>
+    <row r="44" spans="2:42" hidden="1" outlineLevel="1">
+      <c r="D44" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="21"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="61"/>
+      <c r="U44" s="61"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="39"/>
+    </row>
+    <row r="45" spans="2:42" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="D45" s="13"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="46"/>
+    </row>
+    <row r="46" spans="2:42" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="38"/>
+    </row>
+    <row r="47" spans="2:42">
+      <c r="B47" s="3">
         <v>9</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AC44" s="40"/>
-      <c r="AJ44" s="47">
-        <v>46399</v>
-      </c>
-    </row>
-    <row r="45" spans="2:40" ht="5.0999999999999996" customHeight="1">
-      <c r="D45" s="17"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AC45" s="40"/>
-    </row>
-    <row r="46" spans="2:40" ht="5.0999999999999996" customHeight="1">
-      <c r="D46" s="18"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AC46" s="40"/>
-    </row>
-    <row r="47" spans="2:40">
-      <c r="B47" s="3">
-        <v>10</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="40"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="21"/>
+      <c r="Q47" s="21"/>
       <c r="S47" s="21"/>
       <c r="U47" s="21"/>
       <c r="W47" s="21"/>
       <c r="Y47" s="21"/>
       <c r="AA47" s="21"/>
-      <c r="AC47" s="40"/>
-      <c r="AJ47" s="47">
-        <v>47127</v>
-      </c>
-      <c r="AL47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="AC47" s="21"/>
+      <c r="AE47" s="39"/>
+      <c r="AL47" s="49">
+        <v>46399</v>
+      </c>
+    </row>
+    <row r="48" spans="2:42" ht="5.0999999999999996" customHeight="1">
       <c r="D48" s="17"/>
       <c r="E48" s="35"/>
       <c r="F48" s="35"/>
-      <c r="G48" s="43"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="25"/>
       <c r="I48" s="21"/>
       <c r="K48" s="21"/>
@@ -2539,13 +2725,14 @@
       <c r="W48" s="21"/>
       <c r="Y48" s="21"/>
       <c r="AA48" s="21"/>
-      <c r="AC48" s="40"/>
-    </row>
-    <row r="49" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="AC48" s="21"/>
+      <c r="AE48" s="39"/>
+    </row>
+    <row r="49" spans="2:40" ht="5.0999999999999996" customHeight="1">
       <c r="D49" s="18"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="46"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="25"/>
       <c r="I49" s="21"/>
       <c r="K49" s="21"/>
@@ -2557,47 +2744,47 @@
       <c r="W49" s="21"/>
       <c r="Y49" s="21"/>
       <c r="AA49" s="21"/>
-      <c r="AC49" s="40"/>
-    </row>
-    <row r="50" spans="2:38">
+      <c r="AC49" s="21"/>
+      <c r="AE49" s="39"/>
+    </row>
+    <row r="50" spans="2:40">
       <c r="B50" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
+        <v>4</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="W50" s="21"/>
       <c r="Y50" s="21"/>
       <c r="AA50" s="21"/>
-      <c r="AC50" s="40"/>
-      <c r="AJ50" s="47">
-        <v>48135</v>
-      </c>
-      <c r="AL50" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="AC50" s="21"/>
+      <c r="AE50" s="39"/>
+      <c r="AL50" s="42">
+        <v>47127</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:40" ht="5.0999999999999996" customHeight="1">
       <c r="D51" s="17"/>
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
-      <c r="G51" s="43"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="25"/>
       <c r="I51" s="21"/>
       <c r="K51" s="21"/>
@@ -2609,13 +2796,14 @@
       <c r="W51" s="21"/>
       <c r="Y51" s="21"/>
       <c r="AA51" s="21"/>
-      <c r="AC51" s="40"/>
-    </row>
-    <row r="52" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="AC51" s="21"/>
+      <c r="AE51" s="39"/>
+    </row>
+    <row r="52" spans="2:40" ht="5.0999999999999996" customHeight="1">
       <c r="D52" s="18"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="46"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="25"/>
       <c r="I52" s="21"/>
       <c r="K52" s="21"/>
@@ -2627,78 +2815,68 @@
       <c r="W52" s="21"/>
       <c r="Y52" s="21"/>
       <c r="AA52" s="21"/>
-      <c r="AC52" s="40"/>
-    </row>
-    <row r="53" spans="2:38">
+      <c r="AC52" s="21"/>
+      <c r="AE52" s="39"/>
+    </row>
+    <row r="53" spans="2:40">
       <c r="B53" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="56"/>
+        <v>43</v>
+      </c>
+      <c r="G53" s="39"/>
       <c r="H53" s="26"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="63"/>
-      <c r="AJ53" s="47">
-        <v>49227</v>
-      </c>
-      <c r="AL53" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:38" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="D54" s="13"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="51"/>
-    </row>
-    <row r="55" spans="2:38" ht="5.0999999999999996" customHeight="1">
-      <c r="D55" s="11"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="56"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="Y53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AE53" s="39"/>
+      <c r="AL53" s="42">
+        <v>48135</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="D54" s="17"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AE54" s="39"/>
+    </row>
+    <row r="55" spans="2:40" ht="5.0999999999999996" customHeight="1">
+      <c r="D55" s="18"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="25"/>
       <c r="I55" s="21"/>
       <c r="K55" s="21"/>
@@ -2710,57 +2888,82 @@
       <c r="W55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="AA55" s="21"/>
-      <c r="AC55" s="40"/>
-    </row>
-    <row r="56" spans="2:38">
+      <c r="AC55" s="21"/>
+      <c r="AE55" s="39"/>
+    </row>
+    <row r="56" spans="2:40">
       <c r="B56" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="M56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AC56" s="40"/>
-      <c r="AJ56" s="52">
-        <v>45944</v>
-      </c>
-    </row>
-    <row r="57" spans="2:38" ht="5.0999999999999996" customHeight="1">
-      <c r="D57" s="17"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AC57" s="40"/>
-      <c r="AJ57" s="53"/>
-    </row>
-    <row r="58" spans="2:38" ht="5.0999999999999996" customHeight="1">
-      <c r="D58" s="18"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+      <c r="AA56" s="60"/>
+      <c r="AB56" s="60"/>
+      <c r="AC56" s="60"/>
+      <c r="AE56" s="39"/>
+      <c r="AL56" s="42">
+        <v>49227</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:40" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="D57" s="13"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="46"/>
+    </row>
+    <row r="58" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D58" s="11"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="51"/>
       <c r="H58" s="25"/>
       <c r="I58" s="21"/>
       <c r="K58" s="21"/>
@@ -2772,20 +2975,21 @@
       <c r="W58" s="21"/>
       <c r="Y58" s="21"/>
       <c r="AA58" s="21"/>
-      <c r="AC58" s="40"/>
-    </row>
-    <row r="59" spans="2:38">
+      <c r="AC58" s="21"/>
+      <c r="AE58" s="39"/>
+    </row>
+    <row r="59" spans="2:40" hidden="1" outlineLevel="1">
       <c r="B59" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="39"/>
       <c r="H59" s="27"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
       <c r="M59" s="21"/>
       <c r="O59" s="21"/>
       <c r="Q59" s="21"/>
@@ -2794,78 +2998,82 @@
       <c r="W59" s="21"/>
       <c r="Y59" s="21"/>
       <c r="AA59" s="21"/>
-      <c r="AC59" s="40"/>
-      <c r="AJ59" s="52">
+      <c r="AC59" s="21"/>
+      <c r="AE59" s="39"/>
+      <c r="AL59" s="47">
         <v>45944</v>
       </c>
     </row>
-    <row r="60" spans="2:38" ht="5.0999999999999996" customHeight="1">
+    <row r="60" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D60" s="17"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
-      <c r="G60" s="43"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="25"/>
       <c r="I60" s="21"/>
       <c r="K60" s="21"/>
       <c r="M60" s="21"/>
       <c r="O60" s="21"/>
       <c r="Q60" s="21"/>
-      <c r="T60" s="23"/>
+      <c r="S60" s="21"/>
       <c r="U60" s="21"/>
       <c r="W60" s="21"/>
       <c r="Y60" s="21"/>
       <c r="AA60" s="21"/>
-      <c r="AC60" s="40"/>
-    </row>
-    <row r="61" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="AC60" s="21"/>
+      <c r="AE60" s="39"/>
+      <c r="AL60" s="48"/>
+    </row>
+    <row r="61" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D61" s="18"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="46"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="25"/>
       <c r="I61" s="21"/>
       <c r="K61" s="21"/>
       <c r="M61" s="21"/>
       <c r="O61" s="21"/>
       <c r="Q61" s="21"/>
-      <c r="T61" s="23"/>
+      <c r="S61" s="21"/>
       <c r="U61" s="21"/>
       <c r="W61" s="21"/>
       <c r="Y61" s="21"/>
       <c r="AA61" s="21"/>
-      <c r="AC61" s="40"/>
-    </row>
-    <row r="62" spans="2:38" ht="17.25" customHeight="1">
+      <c r="AC61" s="21"/>
+      <c r="AE61" s="39"/>
+    </row>
+    <row r="62" spans="2:40" hidden="1" outlineLevel="1">
       <c r="B62" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="M62" s="21"/>
       <c r="O62" s="21"/>
       <c r="Q62" s="21"/>
-      <c r="T62" s="23"/>
+      <c r="S62" s="21"/>
       <c r="U62" s="21"/>
       <c r="W62" s="21"/>
       <c r="Y62" s="21"/>
       <c r="AA62" s="21"/>
-      <c r="AC62" s="40"/>
-      <c r="AJ62" s="54">
-        <v>46308</v>
-      </c>
-    </row>
-    <row r="63" spans="2:38" ht="5.0999999999999996" customHeight="1">
-      <c r="D63" s="11"/>
+      <c r="AC62" s="21"/>
+      <c r="AE62" s="39"/>
+      <c r="AL62" s="47">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="63" spans="2:40" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D63" s="17"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
-      <c r="G63" s="43"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="25"/>
       <c r="I63" s="21"/>
       <c r="K63" s="21"/>
@@ -2877,14 +3085,14 @@
       <c r="W63" s="21"/>
       <c r="Y63" s="21"/>
       <c r="AA63" s="21"/>
-      <c r="AC63" s="40"/>
-      <c r="AJ63" s="53"/>
-    </row>
-    <row r="64" spans="2:38" ht="5.0999999999999996" customHeight="1">
-      <c r="D64" s="11"/>
+      <c r="AC63" s="21"/>
+      <c r="AE63" s="39"/>
+    </row>
+    <row r="64" spans="2:40" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D64" s="18"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="46"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="25"/>
       <c r="I64" s="21"/>
       <c r="K64" s="21"/>
@@ -2896,17 +3104,17 @@
       <c r="W64" s="21"/>
       <c r="Y64" s="21"/>
       <c r="AA64" s="21"/>
-      <c r="AC64" s="40"/>
-    </row>
-    <row r="65" spans="2:36" ht="15.75" customHeight="1">
+      <c r="AC64" s="21"/>
+      <c r="AE64" s="39"/>
+    </row>
+    <row r="65" spans="2:38" ht="17.25" customHeight="1">
       <c r="B65" s="3">
         <v>15</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" s="40"/>
+      <c r="D65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="39"/>
       <c r="H65" s="26"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -2920,16 +3128,17 @@
       <c r="W65" s="21"/>
       <c r="Y65" s="21"/>
       <c r="AA65" s="21"/>
-      <c r="AC65" s="40"/>
-      <c r="AJ65" s="54">
+      <c r="AC65" s="21"/>
+      <c r="AE65" s="39"/>
+      <c r="AL65" s="47">
         <v>46308</v>
       </c>
     </row>
-    <row r="66" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D66" s="17"/>
+    <row r="66" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D66" s="11"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
-      <c r="G66" s="43"/>
+      <c r="G66" s="40"/>
       <c r="H66" s="25"/>
       <c r="I66" s="21"/>
       <c r="K66" s="21"/>
@@ -2941,14 +3150,15 @@
       <c r="W66" s="21"/>
       <c r="Y66" s="21"/>
       <c r="AA66" s="21"/>
-      <c r="AC66" s="40"/>
-      <c r="AJ66" s="53"/>
-    </row>
-    <row r="67" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D67" s="18"/>
+      <c r="AC66" s="21"/>
+      <c r="AE66" s="39"/>
+      <c r="AL66" s="48"/>
+    </row>
+    <row r="67" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D67" s="11"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="46"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="25"/>
       <c r="I67" s="21"/>
       <c r="K67" s="21"/>
@@ -2960,62 +3170,62 @@
       <c r="W67" s="21"/>
       <c r="Y67" s="21"/>
       <c r="AA67" s="21"/>
-      <c r="AC67" s="40"/>
-    </row>
-    <row r="68" spans="2:36">
+      <c r="AC67" s="21"/>
+      <c r="AE67" s="39"/>
+    </row>
+    <row r="68" spans="2:38" ht="15.75" customHeight="1">
       <c r="B68" s="3">
-        <v>16</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="56"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="39"/>
       <c r="H68" s="26"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
+      <c r="O68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="T68" s="23"/>
       <c r="U68" s="21"/>
       <c r="W68" s="21"/>
       <c r="Y68" s="21"/>
       <c r="AA68" s="21"/>
-      <c r="AC68" s="40"/>
-      <c r="AJ68" s="47">
-        <v>47400</v>
-      </c>
-    </row>
-    <row r="69" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D69" s="11"/>
+      <c r="AC68" s="21"/>
+      <c r="AE68" s="39"/>
+      <c r="AL68" s="47">
+        <v>46308</v>
+      </c>
+    </row>
+    <row r="69" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D69" s="17"/>
       <c r="E69" s="35"/>
       <c r="F69" s="35"/>
-      <c r="G69" s="43"/>
+      <c r="G69" s="40"/>
       <c r="H69" s="25"/>
       <c r="I69" s="21"/>
       <c r="K69" s="21"/>
       <c r="M69" s="21"/>
       <c r="O69" s="21"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="T69" s="23"/>
       <c r="U69" s="21"/>
       <c r="W69" s="21"/>
       <c r="Y69" s="21"/>
       <c r="AA69" s="21"/>
-      <c r="AC69" s="40"/>
-    </row>
-    <row r="70" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D70" s="11"/>
+      <c r="AC69" s="21"/>
+      <c r="AE69" s="39"/>
+      <c r="AL69" s="48"/>
+    </row>
+    <row r="70" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D70" s="18"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="46"/>
+      <c r="G70" s="41"/>
       <c r="H70" s="25"/>
       <c r="I70" s="21"/>
       <c r="K70" s="21"/>
@@ -3027,18 +3237,19 @@
       <c r="W70" s="21"/>
       <c r="Y70" s="21"/>
       <c r="AA70" s="21"/>
-      <c r="AC70" s="40"/>
-    </row>
-    <row r="71" spans="2:36" ht="15.75" customHeight="1">
+      <c r="AC70" s="21"/>
+      <c r="AE70" s="39"/>
+    </row>
+    <row r="71" spans="2:38">
       <c r="B71" s="3">
         <v>16</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="62" t="s">
-        <v>48</v>
-      </c>
+      <c r="D71" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="34"/>
       <c r="F71" s="34"/>
-      <c r="G71" s="56"/>
+      <c r="G71" s="51"/>
       <c r="H71" s="26"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3055,390 +3266,560 @@
       <c r="W71" s="21"/>
       <c r="Y71" s="21"/>
       <c r="AA71" s="21"/>
-      <c r="AC71" s="40"/>
-      <c r="AJ71" s="47">
+      <c r="AC71" s="21"/>
+      <c r="AE71" s="39"/>
+      <c r="AL71" s="42">
         <v>47400</v>
       </c>
     </row>
-    <row r="72" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D72" s="17"/>
+    <row r="72" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D72" s="11"/>
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
-      <c r="G72" s="43"/>
+      <c r="G72" s="40"/>
       <c r="H72" s="25"/>
       <c r="I72" s="21"/>
       <c r="K72" s="21"/>
       <c r="M72" s="21"/>
       <c r="O72" s="21"/>
-      <c r="Q72" s="21"/>
+      <c r="R72" s="23"/>
       <c r="S72" s="21"/>
       <c r="U72" s="21"/>
       <c r="W72" s="21"/>
       <c r="Y72" s="21"/>
       <c r="AA72" s="21"/>
-      <c r="AC72" s="40"/>
-    </row>
-    <row r="73" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="AC72" s="21"/>
+      <c r="AE72" s="39"/>
+    </row>
+    <row r="73" spans="2:38" ht="5.0999999999999996" customHeight="1">
       <c r="D73" s="11"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
-      <c r="G73" s="46"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="25"/>
       <c r="I73" s="21"/>
       <c r="K73" s="21"/>
       <c r="M73" s="21"/>
       <c r="O73" s="21"/>
       <c r="Q73" s="21"/>
-      <c r="S73" s="21"/>
+      <c r="T73" s="23"/>
       <c r="U73" s="21"/>
       <c r="W73" s="21"/>
       <c r="Y73" s="21"/>
       <c r="AA73" s="21"/>
-      <c r="AC73" s="40"/>
-    </row>
-    <row r="74" spans="2:36" hidden="1" outlineLevel="1">
-      <c r="D74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="72">
-        <v>2208</v>
-      </c>
+      <c r="AC73" s="21"/>
+      <c r="AE73" s="39"/>
+    </row>
+    <row r="74" spans="2:38" ht="15.75" customHeight="1">
+      <c r="B74" s="3">
+        <v>16</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="34"/>
+      <c r="G74" s="51"/>
       <c r="H74" s="26"/>
-      <c r="I74" s="71"/>
-      <c r="K74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="S74" s="21"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
       <c r="U74" s="21"/>
       <c r="W74" s="21"/>
       <c r="Y74" s="21"/>
       <c r="AA74" s="21"/>
-      <c r="AC74" s="40"/>
-    </row>
-    <row r="75" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AC75" s="40"/>
-    </row>
-    <row r="76" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D76" s="44"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="W76" s="21"/>
-      <c r="Y76" s="21"/>
-      <c r="AA76" s="21"/>
-      <c r="AC76" s="40"/>
-    </row>
-    <row r="77" spans="2:36" hidden="1" outlineLevel="1">
-      <c r="B77" s="3">
+      <c r="AC74" s="21"/>
+      <c r="AE74" s="39"/>
+      <c r="AL74" s="42">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="75" spans="2:38" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="D75" s="13"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="46"/>
+    </row>
+    <row r="76" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D76" s="76"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="80"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="80"/>
+      <c r="R76" s="81"/>
+      <c r="S76" s="80"/>
+      <c r="T76" s="81"/>
+      <c r="U76" s="80"/>
+      <c r="V76" s="81"/>
+      <c r="W76" s="80"/>
+      <c r="X76" s="81"/>
+      <c r="Y76" s="80"/>
+      <c r="Z76" s="81"/>
+      <c r="AA76" s="80"/>
+      <c r="AB76" s="81"/>
+      <c r="AC76" s="80"/>
+      <c r="AD76" s="81"/>
+      <c r="AE76" s="82"/>
+    </row>
+    <row r="77" spans="2:38" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="D77" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="85">
+        <v>2208</v>
+      </c>
+      <c r="H77" s="86"/>
+      <c r="I77" s="87"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="80"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="80"/>
+      <c r="T77" s="81"/>
+      <c r="U77" s="80"/>
+      <c r="V77" s="81"/>
+      <c r="W77" s="80"/>
+      <c r="X77" s="81"/>
+      <c r="Y77" s="80"/>
+      <c r="Z77" s="81"/>
+      <c r="AA77" s="80"/>
+      <c r="AB77" s="81"/>
+      <c r="AC77" s="80"/>
+      <c r="AD77" s="81"/>
+      <c r="AE77" s="82"/>
+    </row>
+    <row r="78" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D78" s="83"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="80"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="80"/>
+      <c r="R78" s="81"/>
+      <c r="S78" s="80"/>
+      <c r="T78" s="81"/>
+      <c r="U78" s="80"/>
+      <c r="V78" s="81"/>
+      <c r="W78" s="80"/>
+      <c r="X78" s="81"/>
+      <c r="Y78" s="80"/>
+      <c r="Z78" s="81"/>
+      <c r="AA78" s="80"/>
+      <c r="AB78" s="81"/>
+      <c r="AC78" s="80"/>
+      <c r="AD78" s="81"/>
+      <c r="AE78" s="82"/>
+    </row>
+    <row r="79" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D79" s="83"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="80"/>
+      <c r="R79" s="81"/>
+      <c r="S79" s="80"/>
+      <c r="T79" s="81"/>
+      <c r="U79" s="80"/>
+      <c r="V79" s="81"/>
+      <c r="W79" s="80"/>
+      <c r="X79" s="81"/>
+      <c r="Y79" s="80"/>
+      <c r="Z79" s="81"/>
+      <c r="AA79" s="80"/>
+      <c r="AB79" s="81"/>
+      <c r="AC79" s="80"/>
+      <c r="AD79" s="81"/>
+      <c r="AE79" s="82"/>
+    </row>
+    <row r="80" spans="2:38" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B80" s="3">
         <v>17</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D80" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="72">
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="85">
         <v>2302</v>
       </c>
-      <c r="H77" s="26"/>
-      <c r="I77" s="71"/>
-      <c r="K77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="Y77" s="21"/>
-      <c r="AA77" s="21"/>
-      <c r="AC77" s="40"/>
-      <c r="AJ77" s="52">
+      <c r="H80" s="86"/>
+      <c r="I80" s="87"/>
+      <c r="J80" s="81"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="80"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="80"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="80"/>
+      <c r="T80" s="81"/>
+      <c r="U80" s="80"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="80"/>
+      <c r="X80" s="81"/>
+      <c r="Y80" s="80"/>
+      <c r="Z80" s="81"/>
+      <c r="AA80" s="80"/>
+      <c r="AB80" s="81"/>
+      <c r="AC80" s="80"/>
+      <c r="AD80" s="81"/>
+      <c r="AE80" s="82"/>
+      <c r="AL80" s="47">
         <v>45545</v>
       </c>
     </row>
-    <row r="78" spans="2:36" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D78" s="12"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="Q78" s="21"/>
-      <c r="S78" s="21"/>
-      <c r="U78" s="21"/>
-      <c r="W78" s="21"/>
-      <c r="Y78" s="21"/>
-      <c r="AA78" s="21"/>
-      <c r="AC78" s="40"/>
-    </row>
-    <row r="79" spans="2:36" ht="5.0999999999999996" customHeight="1" collapsed="1">
-      <c r="D79" s="12"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="Y79" s="21"/>
-      <c r="AA79" s="21"/>
-      <c r="AC79" s="40"/>
-    </row>
-    <row r="80" spans="2:36">
-      <c r="B80" s="3">
+    <row r="81" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D81" s="83"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="80"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="80"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="80"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="81"/>
+      <c r="Y81" s="80"/>
+      <c r="Z81" s="81"/>
+      <c r="AA81" s="80"/>
+      <c r="AB81" s="81"/>
+      <c r="AC81" s="80"/>
+      <c r="AD81" s="81"/>
+      <c r="AE81" s="82"/>
+    </row>
+    <row r="82" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D82" s="83"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="78"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="80"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="80"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="80"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="80"/>
+      <c r="X82" s="81"/>
+      <c r="Y82" s="80"/>
+      <c r="Z82" s="81"/>
+      <c r="AA82" s="80"/>
+      <c r="AB82" s="81"/>
+      <c r="AC82" s="80"/>
+      <c r="AD82" s="81"/>
+      <c r="AE82" s="82"/>
+    </row>
+    <row r="83" spans="2:38" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="B83" s="3">
         <v>18</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D83" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="72">
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="85">
         <v>2308</v>
       </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="O80" s="21"/>
-      <c r="Q80" s="21"/>
-      <c r="S80" s="21"/>
-      <c r="U80" s="21"/>
-      <c r="W80" s="21"/>
-      <c r="Y80" s="21"/>
-      <c r="AA80" s="21"/>
-      <c r="AC80" s="40"/>
-      <c r="AH80" s="1" t="s">
+      <c r="H83" s="86"/>
+      <c r="I83" s="88"/>
+      <c r="J83" s="88"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="80"/>
+      <c r="R83" s="81"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="81"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="81"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="81"/>
+      <c r="Y83" s="80"/>
+      <c r="Z83" s="81"/>
+      <c r="AA83" s="80"/>
+      <c r="AB83" s="81"/>
+      <c r="AC83" s="80"/>
+      <c r="AD83" s="81"/>
+      <c r="AE83" s="82"/>
+      <c r="AJ83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ80" s="52">
+      <c r="AL83" s="47">
         <v>45727</v>
       </c>
     </row>
-    <row r="81" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D81" s="12"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="O81" s="21"/>
-      <c r="Q81" s="21"/>
-      <c r="S81" s="21"/>
-      <c r="U81" s="21"/>
-      <c r="W81" s="21"/>
-      <c r="Y81" s="21"/>
-      <c r="AA81" s="21"/>
-      <c r="AC81" s="40"/>
-    </row>
-    <row r="82" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D82" s="12"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="O82" s="21"/>
-      <c r="Q82" s="21"/>
-      <c r="S82" s="21"/>
-      <c r="U82" s="21"/>
-      <c r="W82" s="21"/>
-      <c r="Y82" s="21"/>
-      <c r="AA82" s="21"/>
-      <c r="AC82" s="40"/>
-    </row>
-    <row r="83" spans="2:36">
-      <c r="B83" s="3">
-        <v>19</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="72">
-        <v>2402</v>
-      </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="M83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="Q83" s="21"/>
-      <c r="S83" s="21"/>
-      <c r="U83" s="21"/>
-      <c r="W83" s="21"/>
-      <c r="Y83" s="21"/>
-      <c r="AA83" s="21"/>
-      <c r="AC83" s="40"/>
-      <c r="AH83" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI83" s="77"/>
-      <c r="AJ83" s="52">
-        <v>45909</v>
-      </c>
-    </row>
-    <row r="84" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D84" s="12"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="S84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="W84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="AA84" s="21"/>
-      <c r="AC84" s="40"/>
-    </row>
-    <row r="85" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D85" s="12"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="S85" s="21"/>
-      <c r="U85" s="21"/>
-      <c r="W85" s="21"/>
-      <c r="Y85" s="21"/>
-      <c r="AA85" s="21"/>
-      <c r="AC85" s="40"/>
-    </row>
-    <row r="86" spans="2:36">
+    <row r="84" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D84" s="83"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="81"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="80"/>
+      <c r="R84" s="81"/>
+      <c r="S84" s="80"/>
+      <c r="T84" s="81"/>
+      <c r="U84" s="80"/>
+      <c r="V84" s="81"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="81"/>
+      <c r="Y84" s="80"/>
+      <c r="Z84" s="81"/>
+      <c r="AA84" s="80"/>
+      <c r="AB84" s="81"/>
+      <c r="AC84" s="80"/>
+      <c r="AD84" s="81"/>
+      <c r="AE84" s="82"/>
+    </row>
+    <row r="85" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+      <c r="D85" s="83"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="84"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="80"/>
+      <c r="R85" s="81"/>
+      <c r="S85" s="80"/>
+      <c r="T85" s="81"/>
+      <c r="U85" s="80"/>
+      <c r="V85" s="81"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="81"/>
+      <c r="Y85" s="80"/>
+      <c r="Z85" s="81"/>
+      <c r="AA85" s="80"/>
+      <c r="AB85" s="81"/>
+      <c r="AC85" s="80"/>
+      <c r="AD85" s="81"/>
+      <c r="AE85" s="82"/>
+    </row>
+    <row r="86" spans="2:38" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
       <c r="B86" s="3">
         <v>19</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="72">
-        <v>2408</v>
-      </c>
-      <c r="H86" s="25"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="S86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="W86" s="21"/>
-      <c r="Y86" s="21"/>
-      <c r="AA86" s="21"/>
-      <c r="AC86" s="40"/>
-      <c r="AH86" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI86" s="52"/>
-      <c r="AJ86" s="78" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D87" s="12"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="S87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="W87" s="21"/>
-      <c r="Y87" s="21"/>
-      <c r="AA87" s="21"/>
-      <c r="AC87" s="40"/>
-      <c r="AH87" s="4"/>
-      <c r="AI87" s="4"/>
-    </row>
-    <row r="88" spans="2:36" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
-      <c r="D88" s="12"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="W88" s="21"/>
-      <c r="Y88" s="21"/>
-      <c r="AA88" s="21"/>
-      <c r="AC88" s="40"/>
-      <c r="AH88" s="4"/>
-      <c r="AI88" s="4"/>
-    </row>
-    <row r="89" spans="2:36" outlineLevel="1">
+      <c r="D86" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="85">
+        <v>2402</v>
+      </c>
+      <c r="H86" s="79"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="88"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="80"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="80"/>
+      <c r="R86" s="81"/>
+      <c r="S86" s="80"/>
+      <c r="T86" s="81"/>
+      <c r="U86" s="80"/>
+      <c r="V86" s="81"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="81"/>
+      <c r="Y86" s="80"/>
+      <c r="Z86" s="81"/>
+      <c r="AA86" s="80"/>
+      <c r="AB86" s="81"/>
+      <c r="AC86" s="80"/>
+      <c r="AD86" s="81"/>
+      <c r="AE86" s="82"/>
+      <c r="AJ86" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK86" s="68"/>
+      <c r="AL86" s="47">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="87" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D87" s="83"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="80"/>
+      <c r="R87" s="81"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="81"/>
+      <c r="U87" s="80"/>
+      <c r="V87" s="81"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="81"/>
+      <c r="Y87" s="80"/>
+      <c r="Z87" s="81"/>
+      <c r="AA87" s="80"/>
+      <c r="AB87" s="81"/>
+      <c r="AC87" s="80"/>
+      <c r="AD87" s="81"/>
+      <c r="AE87" s="82"/>
+    </row>
+    <row r="88" spans="2:38" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D88" s="89"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="19"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="19"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="20"/>
+      <c r="AD88" s="19"/>
+      <c r="AE88" s="38"/>
+    </row>
+    <row r="89" spans="2:38">
       <c r="B89" s="3">
         <v>19</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
-      <c r="G89" s="79">
-        <v>2502</v>
+      <c r="G89" s="63">
+        <v>2408</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="21"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="68"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="21"/>
       <c r="O89" s="21"/>
       <c r="Q89" s="21"/>
       <c r="S89" s="21"/>
@@ -3446,160 +3827,316 @@
       <c r="W89" s="21"/>
       <c r="Y89" s="21"/>
       <c r="AA89" s="21"/>
-      <c r="AC89" s="40"/>
-      <c r="AH89" s="76">
+      <c r="AC89" s="21"/>
+      <c r="AE89" s="39"/>
+      <c r="AJ89" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK89" s="47"/>
+      <c r="AL89" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D90" s="12"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="S90" s="21"/>
+      <c r="U90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AC90" s="21"/>
+      <c r="AE90" s="39"/>
+      <c r="AJ90" s="4"/>
+      <c r="AK90" s="4"/>
+    </row>
+    <row r="91" spans="2:38" ht="5.0999999999999996" customHeight="1">
+      <c r="D91" s="12"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="S91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AC91" s="21"/>
+      <c r="AE91" s="39"/>
+    </row>
+    <row r="92" spans="2:38">
+      <c r="B92" s="3">
+        <v>19</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="63">
+        <v>2502</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="21"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="75"/>
+      <c r="O92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="S92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AE92" s="39"/>
+      <c r="AJ92" s="67">
         <v>45839</v>
       </c>
-      <c r="AI89" s="76"/>
-      <c r="AJ89" s="76"/>
-    </row>
-    <row r="90" spans="2:36" ht="5.0999999999999996" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="D90" s="13"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="21"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="24"/>
-      <c r="V90" s="14"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="14"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="14"/>
-      <c r="AA90" s="24"/>
-      <c r="AB90" s="14"/>
-      <c r="AC90" s="51"/>
-    </row>
-    <row r="91" spans="2:36" ht="5.0999999999999996" customHeight="1">
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
-      <c r="AA91" s="19"/>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="19"/>
-    </row>
-    <row r="92" spans="2:36">
-      <c r="D92" s="2"/>
-      <c r="E92" s="4" t="s">
+      <c r="AK92" s="67"/>
+      <c r="AL92" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="2:38" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="D93" s="12"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="S93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AC93" s="21"/>
+      <c r="AE93" s="39"/>
+      <c r="AJ93" s="4"/>
+      <c r="AK93" s="4"/>
+    </row>
+    <row r="94" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D94" s="12"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="S94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AC94" s="21"/>
+      <c r="AE94" s="39"/>
+      <c r="AJ94" s="4"/>
+      <c r="AK94" s="4"/>
+    </row>
+    <row r="95" spans="2:38" hidden="1" outlineLevel="1">
+      <c r="B95" s="3">
+        <v>19</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="63">
+        <v>2502</v>
+      </c>
+      <c r="H95" s="25"/>
+      <c r="I95" s="21"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="61"/>
+      <c r="O95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="S95" s="21"/>
+      <c r="U95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AC95" s="21"/>
+      <c r="AE95" s="39"/>
+      <c r="AJ95" s="67">
+        <v>45839</v>
+      </c>
+      <c r="AK95" s="67"/>
+      <c r="AL95" s="67"/>
+    </row>
+    <row r="96" spans="2:38" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+      <c r="D96" s="13"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="21"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="14"/>
+      <c r="U96" s="24"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="24"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="46"/>
+    </row>
+    <row r="97" spans="4:31" ht="5.0999999999999996" customHeight="1" collapsed="1">
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="19"/>
+      <c r="U97" s="19"/>
+      <c r="V97" s="19"/>
+      <c r="W97" s="19"/>
+      <c r="X97" s="19"/>
+      <c r="Y97" s="19"/>
+      <c r="Z97" s="19"/>
+      <c r="AA97" s="19"/>
+      <c r="AB97" s="19"/>
+      <c r="AC97" s="19"/>
+      <c r="AD97" s="19"/>
+      <c r="AE97" s="19"/>
+    </row>
+    <row r="98" spans="4:31">
+      <c r="D98" s="2"/>
+      <c r="E98" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-    </row>
-    <row r="93" spans="2:36">
-      <c r="D93" s="5"/>
-      <c r="E93" s="4" t="s">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+    </row>
+    <row r="99" spans="4:31">
+      <c r="D99" s="5"/>
+      <c r="E99" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-    </row>
-    <row r="94" spans="2:36" ht="15.75" customHeight="1">
-      <c r="D94" s="33"/>
-      <c r="E94" s="64" t="s">
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+    </row>
+    <row r="100" spans="4:31" ht="15.75" customHeight="1">
+      <c r="D100" s="33"/>
+      <c r="E100" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
-      <c r="O94" s="64"/>
-      <c r="P94" s="64"/>
-      <c r="Q94" s="64"/>
-      <c r="R94" s="64"/>
-      <c r="S94" s="64"/>
-      <c r="T94" s="64"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="64"/>
-      <c r="W94" s="64"/>
-      <c r="X94" s="64"/>
-      <c r="Y94" s="64"/>
-      <c r="Z94" s="64"/>
-      <c r="AA94" s="64"/>
-      <c r="AB94" s="64"/>
-      <c r="AC94" s="64"/>
-    </row>
-    <row r="95" spans="2:36">
-      <c r="D95" s="3"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
-      <c r="P95" s="64"/>
-      <c r="Q95" s="64"/>
-      <c r="R95" s="64"/>
-      <c r="S95" s="64"/>
-      <c r="T95" s="64"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="64"/>
-      <c r="W95" s="64"/>
-      <c r="X95" s="64"/>
-      <c r="Y95" s="64"/>
-      <c r="Z95" s="64"/>
-      <c r="AA95" s="64"/>
-      <c r="AB95" s="64"/>
-      <c r="AC95" s="64"/>
-    </row>
-    <row r="96" spans="2:36">
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
+      <c r="P100" s="58"/>
+      <c r="Q100" s="58"/>
+      <c r="R100" s="58"/>
+      <c r="S100" s="58"/>
+      <c r="T100" s="58"/>
+      <c r="U100" s="58"/>
+      <c r="V100" s="58"/>
+      <c r="W100" s="58"/>
+      <c r="X100" s="58"/>
+      <c r="Y100" s="58"/>
+      <c r="Z100" s="58"/>
+      <c r="AA100" s="58"/>
+      <c r="AB100" s="58"/>
+      <c r="AC100" s="58"/>
+      <c r="AD100" s="58"/>
+      <c r="AE100" s="58"/>
+    </row>
+    <row r="101" spans="4:31">
+      <c r="D101" s="3"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="58"/>
+      <c r="S101" s="58"/>
+      <c r="T101" s="58"/>
+      <c r="U101" s="58"/>
+      <c r="V101" s="58"/>
+      <c r="W101" s="58"/>
+      <c r="X101" s="58"/>
+      <c r="Y101" s="58"/>
+      <c r="Z101" s="58"/>
+      <c r="AA101" s="58"/>
+      <c r="AB101" s="58"/>
+      <c r="AC101" s="58"/>
+      <c r="AD101" s="58"/>
+      <c r="AE101" s="58"/>
+    </row>
+    <row r="102" spans="4:31">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D18:G20"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB4:AC4"/>
+  <mergeCells count="28">
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="X3:Y3"/>
@@ -3613,6 +4150,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="D18:G20"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N4:O4"/>
